--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Urenregistratie" sheetId="1" r:id="rId1"/>
+    <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
+    <sheet name="Uren Menno v. Zijtveld" sheetId="2" r:id="rId2"/>
+    <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
+    <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -49,9 +52,6 @@
     <t>Vrijdag</t>
   </si>
   <si>
-    <t>Naam :</t>
-  </si>
-  <si>
     <t>Plus uren</t>
   </si>
   <si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Uren Verantwoording</t>
+  </si>
+  <si>
+    <t>Naam : Jeffrey Meyer</t>
+  </si>
+  <si>
+    <t>Naam : Menno van Zijtveld</t>
+  </si>
+  <si>
+    <t>Naam : Roel Meijns</t>
+  </si>
+  <si>
+    <t>Naam : Jorrit Verheul</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -622,6 +634,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -630,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -984,7 +999,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1006,7 +1021,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="29"/>
@@ -1084,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="59" t="s">
         <v>5</v>
@@ -1093,10 +1108,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="70"/>
+      <c r="B12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="72"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -1109,7 +1124,7 @@
       <c r="B13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43" t="e">
@@ -1128,7 +1143,7 @@
       <c r="B14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47" t="e">
@@ -1147,7 +1162,7 @@
       <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="47" t="e">
@@ -1166,7 +1181,7 @@
       <c r="B16" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="47" t="e">
@@ -1185,7 +1200,7 @@
       <c r="B17" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="47" t="e">
@@ -1202,7 +1217,7 @@
     </row>
     <row r="18" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="50">
@@ -1229,7 +1244,7 @@
       <c r="B19" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="e">
@@ -1248,7 +1263,7 @@
       <c r="B20" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47" t="e">
@@ -1267,7 +1282,7 @@
       <c r="B21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="47" t="e">
@@ -1286,7 +1301,7 @@
       <c r="B22" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="47" t="e">
@@ -1305,7 +1320,7 @@
       <c r="B23" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="71"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47" t="e">
@@ -1322,7 +1337,7 @@
     </row>
     <row r="24" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="50">
@@ -1349,7 +1364,7 @@
       <c r="B25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="71"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="43" t="e">
@@ -1368,7 +1383,7 @@
       <c r="B26" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47" t="e">
@@ -1387,7 +1402,7 @@
       <c r="B27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="71"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47" t="e">
@@ -1406,7 +1421,7 @@
       <c r="B28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47" t="e">
@@ -1425,7 +1440,7 @@
       <c r="B29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47" t="e">
@@ -1442,9 +1457,9 @@
     </row>
     <row r="30" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="71"/>
+        <v>12</v>
+      </c>
+      <c r="C30" s="68"/>
       <c r="D30" s="50">
         <f>SUM(D25:D29)</f>
         <v>0</v>
@@ -1469,7 +1484,7 @@
       <c r="B31" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="71"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
       <c r="F31" s="43" t="e">
@@ -1488,7 +1503,7 @@
       <c r="B32" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="71"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47" t="e">
@@ -1507,7 +1522,7 @@
       <c r="B33" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47" t="e">
@@ -1526,7 +1541,7 @@
       <c r="B34" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="71"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
       <c r="F34" s="47" t="e">
@@ -1562,7 +1577,7 @@
     </row>
     <row r="36" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50">
@@ -1589,7 +1604,7 @@
       <c r="B37" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="71"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="43" t="e">
@@ -1608,7 +1623,7 @@
       <c r="B38" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
       <c r="F38" s="47" t="e">
@@ -1627,7 +1642,7 @@
       <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47" t="e">
@@ -1646,7 +1661,7 @@
       <c r="B40" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="71"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47" t="e">
@@ -1665,7 +1680,7 @@
       <c r="B41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="71"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="47" t="e">
@@ -1682,7 +1697,7 @@
     </row>
     <row r="42" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="50">
@@ -1752,15 +1767,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="68"/>
+      <c r="B46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="70"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="68"/>
+      <c r="E46" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="70"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -1836,4 +1851,2632 @@
   <pageMargins left="0.5" right="0.17" top="0.21" bottom="0.16" header="0.25" footer="0.16"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="33" style="65" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="13.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="31"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31"/>
+      <c r="C8" s="65"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D13+E13+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="44" t="e">
+        <f>MAX(SUM(D13-#REF!-E13-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D14+E14+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="48" t="e">
+        <f>MAX(SUM(D14-#REF!-E14-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D15+E15+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="48" t="e">
+        <f>MAX(SUM(D15-#REF!-E15-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D16+E16+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="48" t="e">
+        <f>MAX(SUM(D16-#REF!-E16-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D17+E17+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="48" t="e">
+        <f>MAX(SUM(D17-#REF!-E17-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50">
+        <f>SUM(D13:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="50">
+        <f>SUM(E13:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D13:E17),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="52" t="e">
+        <f>MAX(SUM(D13:E17)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D19+E19+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="44" t="e">
+        <f>MAX(SUM(D19-#REF!-E19-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D20+E20+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="48" t="e">
+        <f>MAX(SUM(D20-#REF!-E20-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D21+E21+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="48" t="e">
+        <f>MAX(SUM(D21-#REF!-E21-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D22+E22+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="48" t="e">
+        <f>MAX(SUM(D22-#REF!-E22-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D23+E23+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="48" t="e">
+        <f>MAX(SUM(D23-#REF!-E23-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50">
+        <f>SUM(D19:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <f>SUM(E19:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D19:E23),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="52" t="e">
+        <f>MAX(SUM(D19:E23)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D25+E25+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="44" t="e">
+        <f>MAX(SUM(D25-#REF!-E25-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D26+E26+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="48" t="e">
+        <f>MAX(SUM(D26-#REF!-E26-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D27+E27+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="48" t="e">
+        <f>MAX(SUM(D27-#REF!-E27-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D28+E28+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="48" t="e">
+        <f>MAX(SUM(D28-#REF!-E28-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D29+E29+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="48" t="e">
+        <f>MAX(SUM(D29-#REF!-E29-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="50">
+        <f>SUM(D25:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <f>SUM(E25:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D25:E29),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="52" t="e">
+        <f>MAX(SUM(D25:E29)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D31+E31+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="44" t="e">
+        <f>MAX(SUM(D31-#REF!-E31-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D32+E32+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="48" t="e">
+        <f>MAX(SUM(D32-#REF!-E32-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D33+E33+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="48" t="e">
+        <f>MAX(SUM(D33-#REF!-E33-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D34+E34+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="48" t="e">
+        <f>MAX(SUM(D34-#REF!-E34-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D35+E35+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="48" t="e">
+        <f>MAX(SUM(D35-#REF!-E35-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="62"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50">
+        <f>SUM(D31:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="50">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D31:E35),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="52" t="e">
+        <f>MAX(SUM(D31:E35)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D37+E37+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="44" t="e">
+        <f>MAX(SUM(D37-#REF!-E37-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D38+E38+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="48" t="e">
+        <f>MAX(SUM(D38-#REF!-E38-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D39+E39+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="48" t="e">
+        <f>MAX(SUM(D39-#REF!-E39-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D40+E40+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="48" t="e">
+        <f>MAX(SUM(D40-#REF!-E40-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D41+E41+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="48" t="e">
+        <f>MAX(SUM(D41-#REF!-E41-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50">
+        <f>SUM(D37:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="50">
+        <f>SUM(E37:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D37:E41),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="52" t="e">
+        <f>MAX(SUM(D37:E41)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="63"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="36">
+        <f>SUM(D18+D24+D30+D36+D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <f>SUM(E18+E24+E30+E36+E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="53" t="e">
+        <f>MAX(SUM(F12+F18+F24+F30+F36+F42)-SUM(G12+G18+G24+G30+G36+G42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="54" t="e">
+        <f>MAX(SUM(G12+G18+G24+G30+G36+G42)-SUM(F12+F18+F24+F30+F36+F42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="70"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="33" style="65" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="13.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="31"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31"/>
+      <c r="C8" s="65"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D13+E13+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="44" t="e">
+        <f>MAX(SUM(D13-#REF!-E13-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D14+E14+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="48" t="e">
+        <f>MAX(SUM(D14-#REF!-E14-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D15+E15+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="48" t="e">
+        <f>MAX(SUM(D15-#REF!-E15-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D16+E16+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="48" t="e">
+        <f>MAX(SUM(D16-#REF!-E16-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D17+E17+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="48" t="e">
+        <f>MAX(SUM(D17-#REF!-E17-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50">
+        <f>SUM(D13:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="50">
+        <f>SUM(E13:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D13:E17),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="52" t="e">
+        <f>MAX(SUM(D13:E17)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D19+E19+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="44" t="e">
+        <f>MAX(SUM(D19-#REF!-E19-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D20+E20+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="48" t="e">
+        <f>MAX(SUM(D20-#REF!-E20-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D21+E21+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="48" t="e">
+        <f>MAX(SUM(D21-#REF!-E21-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D22+E22+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="48" t="e">
+        <f>MAX(SUM(D22-#REF!-E22-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D23+E23+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="48" t="e">
+        <f>MAX(SUM(D23-#REF!-E23-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50">
+        <f>SUM(D19:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <f>SUM(E19:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D19:E23),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="52" t="e">
+        <f>MAX(SUM(D19:E23)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D25+E25+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="44" t="e">
+        <f>MAX(SUM(D25-#REF!-E25-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D26+E26+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="48" t="e">
+        <f>MAX(SUM(D26-#REF!-E26-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D27+E27+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="48" t="e">
+        <f>MAX(SUM(D27-#REF!-E27-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D28+E28+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="48" t="e">
+        <f>MAX(SUM(D28-#REF!-E28-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D29+E29+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="48" t="e">
+        <f>MAX(SUM(D29-#REF!-E29-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="50">
+        <f>SUM(D25:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <f>SUM(E25:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D25:E29),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="52" t="e">
+        <f>MAX(SUM(D25:E29)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D31+E31+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="44" t="e">
+        <f>MAX(SUM(D31-#REF!-E31-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D32+E32+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="48" t="e">
+        <f>MAX(SUM(D32-#REF!-E32-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D33+E33+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="48" t="e">
+        <f>MAX(SUM(D33-#REF!-E33-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D34+E34+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="48" t="e">
+        <f>MAX(SUM(D34-#REF!-E34-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D35+E35+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="48" t="e">
+        <f>MAX(SUM(D35-#REF!-E35-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="62"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50">
+        <f>SUM(D31:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="50">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D31:E35),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="52" t="e">
+        <f>MAX(SUM(D31:E35)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D37+E37+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="44" t="e">
+        <f>MAX(SUM(D37-#REF!-E37-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D38+E38+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="48" t="e">
+        <f>MAX(SUM(D38-#REF!-E38-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D39+E39+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="48" t="e">
+        <f>MAX(SUM(D39-#REF!-E39-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D40+E40+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="48" t="e">
+        <f>MAX(SUM(D40-#REF!-E40-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D41+E41+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="48" t="e">
+        <f>MAX(SUM(D41-#REF!-E41-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50">
+        <f>SUM(D37:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="50">
+        <f>SUM(E37:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D37:E41),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="52" t="e">
+        <f>MAX(SUM(D37:E41)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="63"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="36">
+        <f>SUM(D18+D24+D30+D36+D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <f>SUM(E18+E24+E30+E36+E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="53" t="e">
+        <f>MAX(SUM(F12+F18+F24+F30+F36+F42)-SUM(G12+G18+G24+G30+G36+G42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="54" t="e">
+        <f>MAX(SUM(G12+G18+G24+G30+G36+G42)-SUM(F12+F18+F24+F30+F36+F42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="70"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="33" style="65" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="13.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="31"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31"/>
+      <c r="C8" s="65"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D13+E13+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="44" t="e">
+        <f>MAX(SUM(D13-#REF!-E13-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D14+E14+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="48" t="e">
+        <f>MAX(SUM(D14-#REF!-E14-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D15+E15+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="48" t="e">
+        <f>MAX(SUM(D15-#REF!-E15-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D16+E16+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="48" t="e">
+        <f>MAX(SUM(D16-#REF!-E16-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D17+E17+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="48" t="e">
+        <f>MAX(SUM(D17-#REF!-E17-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50">
+        <f>SUM(D13:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="50">
+        <f>SUM(E13:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D13:E17),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="52" t="e">
+        <f>MAX(SUM(D13:E17)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D19+E19+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="44" t="e">
+        <f>MAX(SUM(D19-#REF!-E19-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D20+E20+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="48" t="e">
+        <f>MAX(SUM(D20-#REF!-E20-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D21+E21+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="48" t="e">
+        <f>MAX(SUM(D21-#REF!-E21-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D22+E22+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="48" t="e">
+        <f>MAX(SUM(D22-#REF!-E22-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D23+E23+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="48" t="e">
+        <f>MAX(SUM(D23-#REF!-E23-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50">
+        <f>SUM(D19:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <f>SUM(E19:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D19:E23),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="52" t="e">
+        <f>MAX(SUM(D19:E23)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D25+E25+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="44" t="e">
+        <f>MAX(SUM(D25-#REF!-E25-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D26+E26+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="48" t="e">
+        <f>MAX(SUM(D26-#REF!-E26-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D27+E27+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="48" t="e">
+        <f>MAX(SUM(D27-#REF!-E27-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D28+E28+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="48" t="e">
+        <f>MAX(SUM(D28-#REF!-E28-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D29+E29+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="48" t="e">
+        <f>MAX(SUM(D29-#REF!-E29-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="50">
+        <f>SUM(D25:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <f>SUM(E25:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D25:E29),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="52" t="e">
+        <f>MAX(SUM(D25:E29)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D31+E31+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="44" t="e">
+        <f>MAX(SUM(D31-#REF!-E31-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D32+E32+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="48" t="e">
+        <f>MAX(SUM(D32-#REF!-E32-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="62"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D33+E33+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="48" t="e">
+        <f>MAX(SUM(D33-#REF!-E33-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="68"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D34+E34+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="48" t="e">
+        <f>MAX(SUM(D34-#REF!-E34-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D35+E35+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="48" t="e">
+        <f>MAX(SUM(D35-#REF!-E35-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="62"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50">
+        <f>SUM(D31:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="50">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D31:E35),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="52" t="e">
+        <f>MAX(SUM(D31:E35)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43" t="e">
+        <f>MAX(SUM(#REF!)-(D37+E37+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="44" t="e">
+        <f>MAX(SUM(D37-#REF!-E37-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D38+E38+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="48" t="e">
+        <f>MAX(SUM(D38-#REF!-E38-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D39+E39+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="48" t="e">
+        <f>MAX(SUM(D39-#REF!-E39-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D40+E40+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="48" t="e">
+        <f>MAX(SUM(D40-#REF!-E40-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47" t="e">
+        <f>MAX(SUM(#REF!)-(D41+E41+#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="48" t="e">
+        <f>MAX(SUM(D41-#REF!-E41-#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50">
+        <f>SUM(D37:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="50">
+        <f>SUM(E37:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="51" t="e">
+        <f>MAX(SUM(#REF!)-SUM(D37:E41),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="52" t="e">
+        <f>MAX(SUM(D37:E41)-SUM(#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="63"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="36">
+        <f>SUM(D18+D24+D30+D36+D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <f>SUM(E18+E24+E30+E36+E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="53" t="e">
+        <f>MAX(SUM(F12+F18+F24+F30+F36+F42)-SUM(G12+G18+G24+G30+G36+G42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="54" t="e">
+        <f>MAX(SUM(G12+G18+G24+G30+G36+G42)-SUM(F12+F18+F24+F30+F36+F42),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="70"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Naam : Jorrit Verheul</t>
+  </si>
+  <si>
+    <t>Opzetten van de werk omgeving en ervoor gezorgd dat alles werkt in combinatie met Github</t>
+  </si>
+  <si>
+    <t>Plan van aanpak maken en laten nakijken of deze goed is.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -640,6 +646,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -648,6 +657,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,26 +993,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J53"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="33" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="13.42578125" style="13"/>
+    <col min="6" max="6" width="33" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
@@ -1006,85 +1019,67 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
       <c r="E5" s="31"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="E6" s="32"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="E7" s="31"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="65"/>
       <c r="E8" s="29"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -1095,247 +1090,167 @@
       <c r="E11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="59" t="s">
+      <c r="F11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="60"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="68">
+        <v>42772</v>
+      </c>
+      <c r="D13" s="42">
+        <v>6</v>
+      </c>
       <c r="E13" s="42"/>
-      <c r="F13" s="43" t="e">
-        <f>MAX(SUM(#REF!)-(D13+E13+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="44" t="e">
-        <f>MAX(SUM(D13-#REF!-E13-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="2:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="68">
+        <v>42773</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D14+E14+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="48" t="e">
-        <f>MAX(SUM(D14-#REF!-E14-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="68">
+        <v>42774</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D15+E15+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="48" t="e">
-        <f>MAX(SUM(D15-#REF!-E15-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="62"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="68">
+        <v>42775</v>
+      </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D16+E16+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="48" t="e">
-        <f>MAX(SUM(D16-#REF!-E16-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="62"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="68">
+        <v>42776</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D17+E17+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="48" t="e">
-        <f>MAX(SUM(D17-#REF!-E17-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="62"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="50">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="50">
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="51" t="e">
-        <f>MAX(SUM(#REF!)-SUM(D13:E17),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="52" t="e">
-        <f>MAX(SUM(D13:E17)-SUM(#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="63"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="43" t="e">
-        <f>MAX(SUM(#REF!)-(D19+E19+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="44" t="e">
-        <f>MAX(SUM(D19-#REF!-E19-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="61"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D20+E20+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="48" t="e">
-        <f>MAX(SUM(D20-#REF!-E20-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="62"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D21+E21+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="48" t="e">
-        <f>MAX(SUM(D21-#REF!-E21-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="62"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D22+E22+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="48" t="e">
-        <f>MAX(SUM(D22-#REF!-E22-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="62"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D23+E23+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="48" t="e">
-        <f>MAX(SUM(D23-#REF!-E23-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="62"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>12</v>
       </c>
@@ -1348,114 +1263,66 @@
         <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="51" t="e">
-        <f>MAX(SUM(#REF!)-SUM(D19:E23),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="52" t="e">
-        <f>MAX(SUM(D19:E23)-SUM(#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="63"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="43" t="e">
-        <f>MAX(SUM(#REF!)-(D25+E25+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="44" t="e">
-        <f>MAX(SUM(D25-#REF!-E25-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="61"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D26+E26+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="48" t="e">
-        <f>MAX(SUM(D26-#REF!-E26-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="62"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D27+E27+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="48" t="e">
-        <f>MAX(SUM(D27-#REF!-E27-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="62"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D28+E28+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="48" t="e">
-        <f>MAX(SUM(D28-#REF!-E28-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="62"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D29+E29+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="48" t="e">
-        <f>MAX(SUM(D29-#REF!-E29-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="62"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>12</v>
       </c>
@@ -1468,114 +1335,66 @@
         <f>SUM(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="51" t="e">
-        <f>MAX(SUM(#REF!)-SUM(D25:E29),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="52" t="e">
-        <f>MAX(SUM(D25:E29)-SUM(#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="63"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="43" t="e">
-        <f>MAX(SUM(#REF!)-(D31+E31+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="44" t="e">
-        <f>MAX(SUM(D31-#REF!-E31-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="61"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D32+E32+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="48" t="e">
-        <f>MAX(SUM(D32-#REF!-E32-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="62"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D33+E33+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="48" t="e">
-        <f>MAX(SUM(D33-#REF!-E33-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="62"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
-      <c r="F34" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D34+E34+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="48" t="e">
-        <f>MAX(SUM(D34-#REF!-E34-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="62"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D35+E35+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="48" t="e">
-        <f>MAX(SUM(D35-#REF!-E35-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="62"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
         <v>12</v>
       </c>
@@ -1588,114 +1407,66 @@
         <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="51" t="e">
-        <f>MAX(SUM(#REF!)-SUM(D31:E35),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="52" t="e">
-        <f>MAX(SUM(D31:E35)-SUM(#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="63"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="43" t="e">
-        <f>MAX(SUM(#REF!)-(D37+E37+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="44" t="e">
-        <f>MAX(SUM(D37-#REF!-E37-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="61"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D38+E38+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G38" s="48" t="e">
-        <f>MAX(SUM(D38-#REF!-E38-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="62"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
-      <c r="F39" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D39+E39+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G39" s="48" t="e">
-        <f>MAX(SUM(D39-#REF!-E39-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="62"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
-      <c r="F40" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D40+E40+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" s="48" t="e">
-        <f>MAX(SUM(D40-#REF!-E40-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="62"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
-      <c r="F41" s="47" t="e">
-        <f>MAX(SUM(#REF!)-(D41+E41+#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G41" s="48" t="e">
-        <f>MAX(SUM(D41-#REF!-E41-#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="2:10" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="62"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>12</v>
       </c>
@@ -1708,144 +1479,107 @@
         <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="51" t="e">
-        <f>MAX(SUM(#REF!)-SUM(D37:E41),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G42" s="52" t="e">
-        <f>MAX(SUM(D37:E41)-SUM(#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="63"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="53" t="e">
-        <f>MAX(SUM(F12+F18+F24+F30+F36+F42)-SUM(G12+G18+G24+G30+G36+G42),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G43" s="54" t="e">
-        <f>MAX(SUM(G12+G18+G24+G30+G36+G42)-SUM(F12+F18+F24+F30+F36+F42),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F43" s="64"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="69" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="33"/>
       <c r="E46" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.17" top="0.21" bottom="0.16" header="0.25" footer="0.16"/>
@@ -1985,10 +1719,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -2644,15 +2378,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -2861,10 +2595,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -3520,15 +3254,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -3609,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3737,10 +3471,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -4396,15 +4130,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="70"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -85,10 +85,10 @@
     <t>Naam : Jorrit Verheul</t>
   </si>
   <si>
-    <t>Opzetten van de werk omgeving en ervoor gezorgd dat alles werkt in combinatie met Github</t>
+    <t>Plan van aanpak maken en laten nakijken of deze goed is.</t>
   </si>
   <si>
-    <t>Plan van aanpak maken en laten nakijken of deze goed is.</t>
+    <t>Opzetten van de werk omgeving en ervoor gezorgd dat alles werkt in combinatie met Github en gesprek met opdrachtgeven (Paul Jurriens) gehad over het concept.</t>
   </si>
 </sst>
 </file>
@@ -646,6 +646,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -657,12 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,7 +996,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1097,17 +1097,17 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="60"/>
       <c r="G12" s="26"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B13" s="55" t="s">
         <v>6</v>
       </c>
@@ -1118,8 +1118,8 @@
         <v>6</v>
       </c>
       <c r="E13" s="42"/>
-      <c r="F13" s="74" t="s">
-        <v>22</v>
+      <c r="F13" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
@@ -1133,8 +1133,8 @@
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="75" t="s">
-        <v>23</v>
+      <c r="F14" s="71" t="s">
+        <v>22</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
@@ -1518,10 +1518,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="33"/>
       <c r="E46" s="69" t="s">
         <v>13</v>
@@ -1719,10 +1719,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -2378,15 +2378,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -2595,10 +2595,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -3254,15 +3254,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -3471,10 +3471,10 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="40"/>
@@ -4130,15 +4130,15 @@
       <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="67"/>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="3"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorrit\Documents\GitHub\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -84,23 +79,24 @@
     <t>Naam : Jorrit Verheul</t>
   </si>
   <si>
-    <t>Plan van aanpak maken en laten nakijken of deze goed is.</t>
-  </si>
-  <si>
     <t>Opzetten van de werk omgeving en ervoor gezorgd dat alles werkt in combinatie met Github en gesprek met opdrachtgeven (Paul Jurriens) gehad over het concept.</t>
   </si>
   <si>
     <t>Taakverdeling, notulen en planning</t>
   </si>
+  <si>
+    <t xml:space="preserve">Plan van aanpak maken en laten nakijken of deze goed is. Github problemen (merge conflict gefixed) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="d\-mm\-yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="d\-mm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +147,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -523,6 +527,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -535,12 +542,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -584,9 +595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,9 +635,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,26 +670,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,26 +705,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -906,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1008,10 +985,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1025,27 +1002,29 @@
       <c r="C13" s="56">
         <v>42772</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="66">
         <v>6</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="56">
         <v>42773</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="67">
+        <v>4</v>
+      </c>
       <c r="E14" s="41"/>
       <c r="F14" s="59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
@@ -1057,7 +1036,7 @@
       <c r="C15" s="56">
         <v>42774</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="41"/>
       <c r="F15" s="51"/>
       <c r="G15" s="27"/>
@@ -1070,7 +1049,7 @@
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="41"/>
       <c r="F16" s="51"/>
       <c r="G16" s="27"/>
@@ -1083,7 +1062,7 @@
       <c r="C17" s="56">
         <v>42776</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="41"/>
       <c r="F17" s="51"/>
       <c r="G17" s="27"/>
@@ -1096,7 +1075,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1401,7 +1380,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -1429,10 +1408,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="33"/>
       <c r="E46" s="57" t="s">
         <v>11</v>
@@ -1604,10 +1583,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2009,10 +1988,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2183,10 +2162,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2588,10 +2567,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2660,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2762,10 +2741,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2776,7 +2755,7 @@
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="61">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -2784,7 +2763,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
@@ -2793,7 +2772,7 @@
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="61">
         <v>42773</v>
       </c>
       <c r="D14" s="41"/>
@@ -2806,7 +2785,7 @@
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="61">
         <v>42774</v>
       </c>
       <c r="D15" s="41"/>
@@ -2819,7 +2798,7 @@
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="61">
         <v>42775</v>
       </c>
       <c r="D16" s="41"/>
@@ -2832,7 +2811,7 @@
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="61">
         <v>42776</v>
       </c>
       <c r="D17" s="41"/>
@@ -2862,7 +2841,7 @@
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="61">
         <v>42779</v>
       </c>
       <c r="D19" s="39"/>
@@ -2875,7 +2854,7 @@
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="61">
         <v>42780</v>
       </c>
       <c r="D20" s="41"/>
@@ -2888,7 +2867,7 @@
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="61">
         <v>42781</v>
       </c>
       <c r="D21" s="41"/>
@@ -2901,7 +2880,7 @@
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="61">
         <v>42782</v>
       </c>
       <c r="D22" s="41"/>
@@ -2914,7 +2893,7 @@
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="61">
         <v>42783</v>
       </c>
       <c r="D23" s="41"/>
@@ -2944,7 +2923,7 @@
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="61">
         <v>42786</v>
       </c>
       <c r="D25" s="39"/>
@@ -2957,7 +2936,7 @@
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="61">
         <v>42787</v>
       </c>
       <c r="D26" s="41"/>
@@ -2970,7 +2949,7 @@
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="61">
         <v>42788</v>
       </c>
       <c r="D27" s="41"/>
@@ -2983,7 +2962,7 @@
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="61">
         <v>42789</v>
       </c>
       <c r="D28" s="41"/>
@@ -2996,7 +2975,7 @@
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="61">
         <v>42790</v>
       </c>
       <c r="D29" s="41"/>
@@ -3026,7 +3005,7 @@
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="61">
         <v>42793</v>
       </c>
       <c r="D31" s="39"/>
@@ -3039,7 +3018,7 @@
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="61">
         <v>42794</v>
       </c>
       <c r="D32" s="41"/>
@@ -3052,7 +3031,7 @@
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="61">
         <v>42795</v>
       </c>
       <c r="D33" s="41"/>
@@ -3065,7 +3044,7 @@
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="61">
         <v>42796</v>
       </c>
       <c r="D34" s="41"/>
@@ -3078,7 +3057,7 @@
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="61">
         <v>42797</v>
       </c>
       <c r="D35" s="41"/>
@@ -3108,7 +3087,7 @@
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="61">
         <v>42889</v>
       </c>
       <c r="D37" s="39"/>
@@ -3121,7 +3100,7 @@
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="61">
         <v>42890</v>
       </c>
       <c r="D38" s="41"/>
@@ -3134,7 +3113,7 @@
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="65">
+      <c r="C39" s="61">
         <v>42891</v>
       </c>
       <c r="D39" s="41"/>
@@ -3147,7 +3126,7 @@
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="61">
         <v>42892</v>
       </c>
       <c r="D40" s="41"/>
@@ -3160,7 +3139,7 @@
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="65">
+      <c r="C41" s="61">
         <v>42893</v>
       </c>
       <c r="D41" s="41"/>
@@ -3221,10 +3200,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -86,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve">Plan van aanpak maken en laten nakijken of deze goed is. Github problemen (merge conflict gefixed) </t>
+  </si>
+  <si>
+    <t>Informatiebehoefte uitwerken</t>
+  </si>
+  <si>
+    <t>Opzetten project, interview regelen, interview houden</t>
   </si>
 </sst>
 </file>
@@ -359,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,6 +541,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -542,16 +559,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -595,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -635,9 +655,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,7 +692,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -883,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -985,10 +1005,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1002,7 +1022,7 @@
       <c r="C13" s="56">
         <v>42772</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="62">
         <v>6</v>
       </c>
       <c r="E13" s="39"/>
@@ -1019,7 +1039,7 @@
       <c r="C14" s="56">
         <v>42773</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="63">
         <v>4</v>
       </c>
       <c r="E14" s="41"/>
@@ -1036,7 +1056,7 @@
       <c r="C15" s="56">
         <v>42774</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="41"/>
       <c r="F15" s="51"/>
       <c r="G15" s="27"/>
@@ -1049,7 +1069,7 @@
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="41"/>
       <c r="F16" s="51"/>
       <c r="G16" s="27"/>
@@ -1062,7 +1082,7 @@
       <c r="C17" s="56">
         <v>42776</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="41"/>
       <c r="F17" s="51"/>
       <c r="G17" s="27"/>
@@ -1408,10 +1428,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="33"/>
       <c r="E46" s="57" t="s">
         <v>11</v>
@@ -1481,15 +1501,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="33" style="54" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="54" customWidth="1"/>
@@ -1583,24 +1603,30 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
       <c r="G12" s="26"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="56">
+        <v>42772</v>
+      </c>
+      <c r="D13" s="39">
+        <v>6</v>
+      </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="68" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
     </row>
@@ -1608,10 +1634,16 @@
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="56">
+        <v>42773</v>
+      </c>
+      <c r="D14" s="41">
+        <v>4</v>
+      </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="69" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
     </row>
@@ -1619,10 +1651,12 @@
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="56">
+        <v>42774</v>
+      </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
@@ -1630,10 +1664,12 @@
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="56">
+        <v>42775</v>
+      </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1641,10 +1677,12 @@
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="56">
+        <v>42776</v>
+      </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="27"/>
       <c r="H17" s="18"/>
     </row>
@@ -1655,13 +1693,13 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="28"/>
       <c r="H18" s="19"/>
     </row>
@@ -1669,10 +1707,12 @@
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="56">
+        <v>42779</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="27"/>
       <c r="H19" s="18"/>
     </row>
@@ -1680,10 +1720,12 @@
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="56">
+        <v>42780</v>
+      </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="51"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="27"/>
       <c r="H20" s="18"/>
     </row>
@@ -1691,10 +1733,12 @@
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="56">
+        <v>42781</v>
+      </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="27"/>
       <c r="H21" s="18"/>
     </row>
@@ -1702,10 +1746,12 @@
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="56">
+        <v>42782</v>
+      </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="51"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -1713,10 +1759,12 @@
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="56">
+        <v>42783</v>
+      </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="51"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="27"/>
       <c r="H23" s="18"/>
     </row>
@@ -1733,7 +1781,7 @@
         <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="28"/>
       <c r="H24" s="19"/>
     </row>
@@ -1741,10 +1789,12 @@
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="56">
+        <v>42786</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="50"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="27"/>
       <c r="H25" s="18"/>
     </row>
@@ -1752,10 +1802,12 @@
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="56">
+        <v>42787</v>
+      </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="51"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="27"/>
       <c r="H26" s="18"/>
     </row>
@@ -1763,10 +1815,12 @@
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="56">
+        <v>42788</v>
+      </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="27"/>
       <c r="H27" s="18"/>
     </row>
@@ -1774,10 +1828,12 @@
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="56">
+        <v>42789</v>
+      </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="51"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="27"/>
       <c r="H28" s="18"/>
     </row>
@@ -1785,10 +1841,12 @@
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="56">
+        <v>42790</v>
+      </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="27"/>
       <c r="H29" s="18"/>
     </row>
@@ -1796,7 +1854,7 @@
       <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="43">
         <f>SUM(D25:D29)</f>
         <v>0</v>
@@ -1805,7 +1863,7 @@
         <f>SUM(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="28"/>
       <c r="H30" s="19"/>
     </row>
@@ -1813,10 +1871,12 @@
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="56">
+        <v>42793</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="27"/>
       <c r="H31" s="18"/>
     </row>
@@ -1824,10 +1884,12 @@
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="56">
+        <v>42794</v>
+      </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="51"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="27"/>
       <c r="H32" s="18"/>
     </row>
@@ -1835,10 +1897,12 @@
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="56">
+        <v>42795</v>
+      </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="51"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="27"/>
       <c r="H33" s="18"/>
     </row>
@@ -1846,10 +1910,12 @@
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="56">
+        <v>42796</v>
+      </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="51"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="27"/>
       <c r="H34" s="18"/>
     </row>
@@ -1857,10 +1923,12 @@
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="56">
+        <v>42797</v>
+      </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="51"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="27"/>
       <c r="H35" s="18"/>
     </row>
@@ -1877,7 +1945,7 @@
         <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="28"/>
       <c r="H36" s="19"/>
     </row>
@@ -1885,10 +1953,12 @@
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="56">
+        <v>42800</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="27"/>
       <c r="H37" s="18"/>
     </row>
@@ -1896,10 +1966,12 @@
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="56">
+        <v>42801</v>
+      </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="51"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="27"/>
       <c r="H38" s="18"/>
     </row>
@@ -1907,10 +1979,12 @@
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="56">
+        <v>42802</v>
+      </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="51"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="27"/>
       <c r="H39" s="18"/>
     </row>
@@ -1918,10 +1992,12 @@
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="56">
+        <v>42803</v>
+      </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="27"/>
       <c r="H40" s="18"/>
     </row>
@@ -1929,10 +2005,12 @@
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="56">
+        <v>42804</v>
+      </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="51"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="27"/>
       <c r="H41" s="18"/>
     </row>
@@ -1949,7 +2027,7 @@
         <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="70"/>
       <c r="G42" s="28"/>
       <c r="H42" s="19"/>
     </row>
@@ -1960,7 +2038,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -1988,10 +2066,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2053,6 +2131,7 @@
     <mergeCell ref="B46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2162,10 +2241,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2567,10 +2646,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2741,10 +2820,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -3200,10 +3279,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +92,9 @@
   </si>
   <si>
     <t>Opzetten project, interview regelen, interview houden</t>
+  </si>
+  <si>
+    <t>Plan van aanpak aangepast voor volgende gesprek met onze klant.</t>
   </si>
 </sst>
 </file>
@@ -547,6 +545,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -559,19 +566,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -615,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -655,9 +653,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,7 +690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -903,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1005,10 +1003,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1049,16 +1047,20 @@
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="56">
         <v>42774</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="63">
+        <v>5</v>
+      </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="59" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
@@ -1095,7 +1097,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1400,7 +1402,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -1428,10 +1430,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="33"/>
       <c r="E46" s="57" t="s">
         <v>11</v>
@@ -1501,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1603,10 +1605,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1624,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="27"/>
@@ -1641,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="27"/>
@@ -1656,7 +1658,7 @@
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="69"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
@@ -1669,7 +1671,7 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="69"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="69"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="27"/>
       <c r="H17" s="18"/>
     </row>
@@ -1699,7 +1701,7 @@
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="28"/>
       <c r="H18" s="19"/>
     </row>
@@ -1712,7 +1714,7 @@
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="68"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="27"/>
       <c r="H19" s="18"/>
     </row>
@@ -1725,7 +1727,7 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="69"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="27"/>
       <c r="H20" s="18"/>
     </row>
@@ -1738,7 +1740,7 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="69"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="27"/>
       <c r="H21" s="18"/>
     </row>
@@ -1751,7 +1753,7 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -1764,7 +1766,7 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="69"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="27"/>
       <c r="H23" s="18"/>
     </row>
@@ -1781,7 +1783,7 @@
         <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="28"/>
       <c r="H24" s="19"/>
     </row>
@@ -1794,7 +1796,7 @@
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="68"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="27"/>
       <c r="H25" s="18"/>
     </row>
@@ -1807,7 +1809,7 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="27"/>
       <c r="H26" s="18"/>
     </row>
@@ -1820,7 +1822,7 @@
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="27"/>
       <c r="H27" s="18"/>
     </row>
@@ -1833,7 +1835,7 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="69"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="27"/>
       <c r="H28" s="18"/>
     </row>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="69"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="27"/>
       <c r="H29" s="18"/>
     </row>
@@ -1863,7 +1865,7 @@
         <f>SUM(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="70"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="28"/>
       <c r="H30" s="19"/>
     </row>
@@ -1876,7 +1878,7 @@
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="27"/>
       <c r="H31" s="18"/>
     </row>
@@ -1889,7 +1891,7 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="69"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="27"/>
       <c r="H32" s="18"/>
     </row>
@@ -1902,7 +1904,7 @@
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="69"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="27"/>
       <c r="H33" s="18"/>
     </row>
@@ -1915,7 +1917,7 @@
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="69"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="27"/>
       <c r="H34" s="18"/>
     </row>
@@ -1928,7 +1930,7 @@
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="69"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="27"/>
       <c r="H35" s="18"/>
     </row>
@@ -1945,7 +1947,7 @@
         <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="28"/>
       <c r="H36" s="19"/>
     </row>
@@ -1958,7 +1960,7 @@
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="68"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="27"/>
       <c r="H37" s="18"/>
     </row>
@@ -1971,7 +1973,7 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="69"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="27"/>
       <c r="H38" s="18"/>
     </row>
@@ -1984,7 +1986,7 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="69"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="27"/>
       <c r="H39" s="18"/>
     </row>
@@ -1997,7 +1999,7 @@
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="69"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="27"/>
       <c r="H40" s="18"/>
     </row>
@@ -2010,7 +2012,7 @@
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="69"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="27"/>
       <c r="H41" s="18"/>
     </row>
@@ -2027,7 +2029,7 @@
         <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="70"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="28"/>
       <c r="H42" s="19"/>
     </row>
@@ -2066,10 +2068,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2241,10 +2243,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2646,10 +2648,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2820,10 +2822,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -3279,10 +3281,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Opzetten project, interview regelen, interview houden</t>
+  </si>
+  <si>
+    <t>Informatiebehoefte "afgemaakt", 2e interview gedaan.</t>
   </si>
 </sst>
 </file>
@@ -547,6 +550,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -558,15 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,10 +1008,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1428,10 +1431,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="33"/>
       <c r="E46" s="57" t="s">
         <v>11</v>
@@ -1502,7 +1505,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1603,10 +1606,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -1624,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
@@ -1641,22 +1644,26 @@
         <v>4</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="56">
         <v>42774</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="41">
+        <v>4</v>
+      </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="69"/>
+      <c r="F15" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
@@ -1669,7 +1676,7 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="69"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1682,7 +1689,7 @@
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="69"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="27"/>
       <c r="H17" s="18"/>
     </row>
@@ -1693,13 +1700,13 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="28"/>
       <c r="H18" s="19"/>
     </row>
@@ -1712,7 +1719,7 @@
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="68"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="27"/>
       <c r="H19" s="18"/>
     </row>
@@ -1725,7 +1732,7 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="69"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="27"/>
       <c r="H20" s="18"/>
     </row>
@@ -1738,7 +1745,7 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="69"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="27"/>
       <c r="H21" s="18"/>
     </row>
@@ -1751,7 +1758,7 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -1764,7 +1771,7 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="69"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="27"/>
       <c r="H23" s="18"/>
     </row>
@@ -1781,7 +1788,7 @@
         <f>SUM(E19:E23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="28"/>
       <c r="H24" s="19"/>
     </row>
@@ -1794,7 +1801,7 @@
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="68"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="27"/>
       <c r="H25" s="18"/>
     </row>
@@ -1807,7 +1814,7 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="27"/>
       <c r="H26" s="18"/>
     </row>
@@ -1820,7 +1827,7 @@
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="27"/>
       <c r="H27" s="18"/>
     </row>
@@ -1833,7 +1840,7 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="69"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="27"/>
       <c r="H28" s="18"/>
     </row>
@@ -1846,7 +1853,7 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="69"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="27"/>
       <c r="H29" s="18"/>
     </row>
@@ -1863,7 +1870,7 @@
         <f>SUM(E25:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="70"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="28"/>
       <c r="H30" s="19"/>
     </row>
@@ -1876,7 +1883,7 @@
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="27"/>
       <c r="H31" s="18"/>
     </row>
@@ -1889,7 +1896,7 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="69"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="27"/>
       <c r="H32" s="18"/>
     </row>
@@ -1902,7 +1909,7 @@
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="69"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="27"/>
       <c r="H33" s="18"/>
     </row>
@@ -1915,7 +1922,7 @@
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="69"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="27"/>
       <c r="H34" s="18"/>
     </row>
@@ -1928,7 +1935,7 @@
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="69"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="27"/>
       <c r="H35" s="18"/>
     </row>
@@ -1945,7 +1952,7 @@
         <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="28"/>
       <c r="H36" s="19"/>
     </row>
@@ -1958,7 +1965,7 @@
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="68"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="27"/>
       <c r="H37" s="18"/>
     </row>
@@ -1971,7 +1978,7 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="69"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="27"/>
       <c r="H38" s="18"/>
     </row>
@@ -1984,7 +1991,7 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="69"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="27"/>
       <c r="H39" s="18"/>
     </row>
@@ -1997,7 +2004,7 @@
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="69"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="27"/>
       <c r="H40" s="18"/>
     </row>
@@ -2010,7 +2017,7 @@
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="69"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="27"/>
       <c r="H41" s="18"/>
     </row>
@@ -2027,7 +2034,7 @@
         <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="70"/>
+      <c r="F42" s="66"/>
       <c r="G42" s="28"/>
       <c r="H42" s="19"/>
     </row>
@@ -2038,7 +2045,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -2066,10 +2073,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2241,10 +2248,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -2646,10 +2653,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>
@@ -2820,10 +2827,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="49"/>
@@ -3279,10 +3286,10 @@
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="65"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="55"/>
       <c r="E46" s="60" t="s">
         <v>11</v>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +95,9 @@
   </si>
   <si>
     <t>Informatiebehoefte "afgemaakt", 2e interview gedaan.</t>
+  </si>
+  <si>
+    <t>Overleg wat er volgende week gaat gebeuren en wat er nog afgemaakt moest worden</t>
   </si>
 </sst>
 </file>
@@ -573,8 +571,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -618,9 +616,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,9 +656,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,7 +728,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1505,7 +1503,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1667,16 +1665,20 @@
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="41">
+        <v>5</v>
+      </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1700,7 +1702,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -2045,7 +2047,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -98,6 +103,18 @@
   </si>
   <si>
     <t>Overleg wat er volgende week gaat gebeuren en wat er nog afgemaakt moest worden</t>
+  </si>
+  <si>
+    <t>Project opzetten, Planning maken, Interview met de opdracht gever</t>
+  </si>
+  <si>
+    <t>Pva, Informatiebehoefte en functioneel ontwerp begin</t>
+  </si>
+  <si>
+    <t>functioneel ontwerp en 2e interview met opdrachtgever</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp en planing 2e week</t>
   </si>
 </sst>
 </file>
@@ -658,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,7 +710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -904,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1502,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2146,24 +2163,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="33" style="54" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="54" customWidth="1"/>
     <col min="8" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2190,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2181,7 +2198,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
@@ -2190,41 +2207,41 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
       <c r="E5" s="31"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="E6" s="32"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="E7" s="31"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="54"/>
       <c r="E8" s="29"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2232,7 +2249,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -2249,7 +2266,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
@@ -2260,58 +2277,85 @@
       <c r="G12" s="26"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="56">
+        <v>42772</v>
+      </c>
+      <c r="D13" s="39">
+        <v>3</v>
+      </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="58" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="56">
+        <v>42773</v>
+      </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="51"/>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="56">
+        <v>42774</v>
+      </c>
+      <c r="D15" s="41">
+        <v>4</v>
+      </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="59" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="56">
+        <v>42775</v>
+      </c>
+      <c r="D16" s="41">
+        <v>4</v>
+      </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="56">
+        <v>42776</v>
+      </c>
+      <c r="D17" s="41">
+        <v>3</v>
+      </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="51"/>
+      <c r="F17" s="59" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="18"/>
     </row>
@@ -2322,7 +2366,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -2627,7 +2671,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -90,9 +85,6 @@
     <t>Taakverdeling, notulen en planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Plan van aanpak maken en laten nakijken of deze goed is. Github problemen (merge conflict gefixed) </t>
-  </si>
-  <si>
     <t>Informatiebehoefte uitwerken</t>
   </si>
   <si>
@@ -100,9 +92,6 @@
   </si>
   <si>
     <t>Informatiebehoefte "afgemaakt", 2e interview gedaan.</t>
-  </si>
-  <si>
-    <t>Overleg wat er volgende week gaat gebeuren en wat er nog afgemaakt moest worden</t>
   </si>
   <si>
     <t>Project opzetten, Planning maken, Interview met de opdracht gever</t>
@@ -115,6 +104,15 @@
   </si>
   <si>
     <t>Functioneel ontwerp en planing 2e week</t>
+  </si>
+  <si>
+    <t>Kaartjes aangemaakt wat er gedaan moet worden in kerntaak 2.</t>
+  </si>
+  <si>
+    <t>Overleg wat er volgende week gaat gebeuren en wat er nog afgemaakt moest worden.</t>
+  </si>
+  <si>
+    <t>Plan van aanpak maken en laten nakijken of deze goed is. Github problemen (merge conflict gefixed).</t>
   </si>
 </sst>
 </file>
@@ -675,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1062,34 +1060,42 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="59" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="56">
         <v>42774</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="63">
+        <v>4</v>
+      </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="63">
+        <v>5</v>
+      </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1113,7 +1119,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1418,7 +1424,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -1520,7 +1526,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1649,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
@@ -1677,25 +1683,21 @@
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41">
-        <v>5</v>
-      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="65" t="s">
-        <v>26</v>
-      </c>
+      <c r="F16" s="65"/>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
     </row>
@@ -1719,7 +1721,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>
@@ -2165,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2289,7 +2291,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="15"/>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="18"/>
@@ -2337,7 +2339,7 @@
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="18"/>
@@ -2354,7 +2356,7 @@
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="18"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Plan van aanpak maken en laten nakijken of deze goed is. Github problemen (merge conflict gefixed).</t>
+  </si>
+  <si>
+    <t>Extern hulp verleent en met Menno v. Zijtveld normalisatie gemaakt morgen Dinsdag 14-2-2017 mee verder gaan.</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1129,14 +1132,20 @@
       <c r="G18" s="28"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="56">
+        <v>42779</v>
+      </c>
+      <c r="D19" s="39">
+        <v>7</v>
+      </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="18"/>
     </row>
@@ -1144,7 +1153,9 @@
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="56">
+        <v>42780</v>
+      </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="51"/>
@@ -1155,7 +1166,9 @@
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="56">
+        <v>42781</v>
+      </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="51"/>
@@ -1166,7 +1179,9 @@
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="56">
+        <v>42782</v>
+      </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="51"/>
@@ -1177,7 +1192,9 @@
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="56">
+        <v>42783</v>
+      </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="51"/>
@@ -1191,7 +1208,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24" s="43">
         <f>SUM(E19:E23)</f>
@@ -1424,7 +1441,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E43" s="36">
         <f>SUM(E18+E24+E30+E36+E42)</f>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -117,6 +117,9 @@
   <si>
     <t>Extern hulp verleent en met Menno v. Zijtveld normalisatie gemaakt morgen Dinsdag 14-2-2017 mee verder gaan.</t>
   </si>
+  <si>
+    <t>Rooster Vrij</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -574,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -920,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -931,13 +937,13 @@
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="13.42578125" style="13"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="33" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -946,67 +952,70 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="54"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -1015,26 +1024,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="F12" s="34"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
@@ -1044,14 +1057,15 @@
       <c r="D13" s="62">
         <v>6</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="H13" s="27"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
@@ -1061,14 +1075,15 @@
       <c r="D14" s="63">
         <v>4</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="63"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="H14" s="27"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
@@ -1078,14 +1093,15 @@
       <c r="D15" s="63">
         <v>4</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="59" t="s">
+      <c r="E15" s="63"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="H15" s="27"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
@@ -1095,14 +1111,15 @@
       <c r="D16" s="63">
         <v>5</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="65" t="s">
+      <c r="E16" s="63"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="27"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
@@ -1110,12 +1127,15 @@
         <v>42776</v>
       </c>
       <c r="D17" s="63"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="63">
+        <v>7</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -1126,13 +1146,17 @@
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="43">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
@@ -1143,13 +1167,14 @@
         <v>7</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="27"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
@@ -1158,11 +1183,12 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="41"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
@@ -1171,11 +1197,12 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="41"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
@@ -1184,11 +1211,12 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="41"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
@@ -1197,11 +1225,12 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="41"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>10</v>
       </c>
@@ -1210,70 +1239,76 @@
         <f>SUM(D19:D23)</f>
         <v>7</v>
       </c>
-      <c r="E24" s="43">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43">
+        <f>SUM(F19:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="39"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="41"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="41"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="41"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="41"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
@@ -1282,70 +1317,76 @@
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
-        <f>SUM(E25:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="43"/>
+      <c r="F30" s="43">
+        <f>SUM(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="39"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="41"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="41"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="41"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="41"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>10</v>
       </c>
@@ -1354,70 +1395,76 @@
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="39"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="41"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="41"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="41"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="41"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>10</v>
       </c>
@@ -1426,15 +1473,16 @@
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43">
-        <f>SUM(E37:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <f>SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="35" t="s">
         <v>3</v>
@@ -1443,90 +1491,101 @@
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>26</v>
       </c>
-      <c r="E43" s="36">
-        <f>SUM(E18+E24+E30+E36+E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36">
+        <f>SUM(F18+F24+F30+F36+F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="67"/>
+      <c r="F46" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1540,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1551,13 +1610,13 @@
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33" style="54" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="13.42578125" style="13"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="33" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -1566,67 +1625,70 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="54"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -1635,26 +1697,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="F12" s="34"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
@@ -1665,13 +1731,14 @@
         <v>6</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="27"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
@@ -1682,13 +1749,14 @@
         <v>4</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="H14" s="27"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
@@ -1699,13 +1767,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="27"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
@@ -1714,11 +1783,12 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="41"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
@@ -1726,12 +1796,15 @@
         <v>42776</v>
       </c>
       <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="41">
+        <v>7</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -1742,13 +1815,17 @@
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="43">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
@@ -1757,11 +1834,12 @@
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="39"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
@@ -1770,11 +1848,12 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="41"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
@@ -1783,11 +1862,12 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="41"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
@@ -1796,11 +1876,12 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="41"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
@@ -1809,11 +1890,12 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="41"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>10</v>
       </c>
@@ -1822,15 +1904,16 @@
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43">
+        <f>SUM(F19:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
@@ -1839,11 +1922,12 @@
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="39"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
@@ -1852,11 +1936,12 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="41"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
@@ -1865,11 +1950,12 @@
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="41"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
@@ -1878,11 +1964,12 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="41"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
@@ -1891,11 +1978,12 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="41"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
@@ -1904,15 +1992,16 @@
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
-        <f>SUM(E25:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="43"/>
+      <c r="F30" s="43">
+        <f>SUM(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
@@ -1921,11 +2010,12 @@
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="39"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
@@ -1934,11 +2024,12 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="41"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
@@ -1947,11 +2038,12 @@
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="41"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
@@ -1960,11 +2052,12 @@
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="41"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
@@ -1973,11 +2066,12 @@
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="41"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>10</v>
       </c>
@@ -1986,15 +2080,16 @@
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="66"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
@@ -2003,11 +2098,12 @@
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="39"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
@@ -2016,11 +2112,12 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="41"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
@@ -2029,11 +2126,12 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="41"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
@@ -2042,11 +2140,12 @@
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="41"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
@@ -2055,11 +2154,12 @@
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="41"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>10</v>
       </c>
@@ -2068,15 +2168,16 @@
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43">
-        <f>SUM(E37:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="66"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <f>SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="66"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="35" t="s">
         <v>3</v>
@@ -2085,90 +2186,101 @@
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>14</v>
       </c>
-      <c r="E43" s="36">
-        <f>SUM(E18+E24+E30+E36+E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36">
+        <f>SUM(F18+F24+F30+F36+F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="55"/>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="67"/>
+      <c r="F46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2182,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2193,13 +2305,13 @@
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33" style="54" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="13.42578125" style="13"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="33" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -2208,67 +2320,70 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="54"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -2277,26 +2392,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="34"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
@@ -2307,13 +2426,14 @@
         <v>3</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="27"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="45" t="s">
         <v>6</v>
@@ -2322,12 +2442,15 @@
         <v>42773</v>
       </c>
       <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="41">
+        <v>5</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
@@ -2338,13 +2461,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="27"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
@@ -2355,13 +2479,14 @@
         <v>4</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="27"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
@@ -2372,13 +2497,14 @@
         <v>3</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="27"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2389,68 +2515,77 @@
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="43">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="39"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="41"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="41"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="56"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="41"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="41"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>10</v>
       </c>
@@ -2459,70 +2594,76 @@
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43">
+        <f>SUM(F19:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="39"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="41"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="41"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="41"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="41"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
@@ -2531,70 +2672,76 @@
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
-        <f>SUM(E25:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="43"/>
+      <c r="F30" s="43">
+        <f>SUM(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="39"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="41"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="41"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="41"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="41"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>10</v>
       </c>
@@ -2603,70 +2750,76 @@
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="39"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="41"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="41"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="41"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="41"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>10</v>
       </c>
@@ -2675,15 +2828,16 @@
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43">
-        <f>SUM(E37:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <f>SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="35" t="s">
         <v>3</v>
@@ -2692,90 +2846,101 @@
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>14</v>
       </c>
-      <c r="E43" s="36">
-        <f>SUM(E18+E24+E30+E36+E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36">
+        <f>SUM(F18+F24+F30+F36+F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="55"/>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="67"/>
+      <c r="F46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2788,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2799,13 +2964,13 @@
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33" style="54" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="13.42578125" style="13"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="33" style="54" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -2814,67 +2979,70 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
       <c r="C8" s="54"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" s="11" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="37" t="s">
         <v>0</v>
@@ -2883,26 +3051,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="34"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
@@ -2913,13 +3085,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="27"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>6</v>
       </c>
@@ -2928,11 +3101,12 @@
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="41"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
         <v>7</v>
       </c>
@@ -2941,11 +3115,12 @@
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="41"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
@@ -2954,11 +3129,12 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="41"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
         <v>9</v>
       </c>
@@ -2967,11 +3143,12 @@
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="41"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2984,11 +3161,15 @@
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="43">
+        <f>SUM(F13:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47" t="s">
         <v>5</v>
       </c>
@@ -2997,11 +3178,12 @@
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="39"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
@@ -3010,11 +3192,12 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="41"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
@@ -3023,11 +3206,12 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="41"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
@@ -3036,11 +3220,12 @@
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="41"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="45" t="s">
         <v>9</v>
       </c>
@@ -3049,11 +3234,12 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="41"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>10</v>
       </c>
@@ -3062,15 +3248,16 @@
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
-        <f>SUM(E19:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43">
+        <f>SUM(F19:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="52"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
@@ -3079,11 +3266,12 @@
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="39"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="45" t="s">
         <v>6</v>
       </c>
@@ -3092,11 +3280,12 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="41"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>7</v>
       </c>
@@ -3105,11 +3294,12 @@
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="41"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="45" t="s">
         <v>8</v>
       </c>
@@ -3118,11 +3308,12 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="41"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="45" t="s">
         <v>9</v>
       </c>
@@ -3131,11 +3322,12 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="41"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
@@ -3144,15 +3336,16 @@
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
-        <f>SUM(E25:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="43"/>
+      <c r="F30" s="43">
+        <f>SUM(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="52"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47" t="s">
         <v>5</v>
       </c>
@@ -3161,11 +3354,12 @@
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="39"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="45" t="s">
         <v>6</v>
       </c>
@@ -3174,11 +3368,12 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="41"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="45" t="s">
         <v>7</v>
       </c>
@@ -3187,11 +3382,12 @@
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="41"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="45" t="s">
         <v>8</v>
       </c>
@@ -3200,11 +3396,12 @@
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="41"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
         <v>9</v>
       </c>
@@ -3213,11 +3410,12 @@
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="41"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>10</v>
       </c>
@@ -3226,15 +3424,16 @@
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43">
-        <f>SUM(E31:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="43"/>
+      <c r="F36" s="43">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47" t="s">
         <v>5</v>
       </c>
@@ -3243,11 +3442,12 @@
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="39"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
         <v>6</v>
       </c>
@@ -3256,11 +3456,12 @@
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="41"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45" t="s">
         <v>7</v>
       </c>
@@ -3269,11 +3470,12 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="41"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
         <v>8</v>
       </c>
@@ -3282,11 +3484,12 @@
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="41"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
@@ -3295,11 +3498,12 @@
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="41"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>10</v>
       </c>
@@ -3308,15 +3512,16 @@
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43">
-        <f>SUM(E37:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="43"/>
+      <c r="F42" s="43">
+        <f>SUM(F37:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="35" t="s">
         <v>3</v>
@@ -3325,90 +3530,101 @@
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>5</v>
       </c>
-      <c r="E43" s="36">
-        <f>SUM(E18+E24+E30+E36+E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36">
+        <f>SUM(F18+F24+F30+F36+F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="55"/>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="67"/>
+      <c r="F46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="21"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="21"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +125,12 @@
   <si>
     <t>Rooster Vrij</t>
   </si>
+  <si>
+    <t>Normaliseren database</t>
+  </si>
+  <si>
+    <t>Afmaken kerntaak 1, plannen voor kerntaak 2</t>
+  </si>
 </sst>
 </file>
 
@@ -595,8 +606,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -640,9 +651,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +691,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +728,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1601,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1774,17 +1785,21 @@
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="41">
+        <v>7</v>
+      </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
@@ -1811,7 +1826,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1832,10 +1847,14 @@
       <c r="C19" s="56">
         <v>42779</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>6</v>
+      </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
@@ -1849,7 +1868,9 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="65" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
@@ -1902,7 +1923,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -2184,7 +2205,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
@@ -2955,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -129,7 +129,7 @@
     <t>Normaliseren database</t>
   </si>
   <si>
-    <t>Afmaken kerntaak 1, plannen voor kerntaak 2</t>
+    <t>Afmaken kerntaak 1, plannen voor kerntaak 2 (2uur Engels examen voorbereiden)</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1785,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>42775</v>
       </c>
       <c r="D16" s="41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -1826,7 +1826,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -52,9 +47,6 @@
   </si>
   <si>
     <t>Vrijdag</t>
-  </si>
-  <si>
-    <t>Saldo week</t>
   </si>
   <si>
     <t>Handtekening leidinggevende :</t>
@@ -126,10 +118,7 @@
     <t>Rooster Vrij</t>
   </si>
   <si>
-    <t>Normaliseren database</t>
-  </si>
-  <si>
-    <t>Afmaken kerntaak 1, plannen voor kerntaak 2 (2uur Engels examen voorbereiden)</t>
+    <t>Uur week</t>
   </si>
 </sst>
 </file>
@@ -606,8 +595,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -651,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -691,9 +680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,7 +717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,7 +752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -956,7 +945,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -976,7 +965,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="29"/>
@@ -1035,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>2</v>
@@ -1048,7 +1037,7 @@
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="34"/>
@@ -1071,7 +1060,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="39"/>
       <c r="G13" s="58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
@@ -1089,7 +1078,7 @@
       <c r="E14" s="63"/>
       <c r="F14" s="41"/>
       <c r="G14" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
@@ -1107,7 +1096,7 @@
       <c r="E15" s="63"/>
       <c r="F15" s="41"/>
       <c r="G15" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
@@ -1125,7 +1114,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="41"/>
       <c r="G16" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
@@ -1148,7 +1137,7 @@
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -1180,7 +1169,7 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
@@ -1243,7 +1232,7 @@
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -1321,7 +1310,7 @@
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="43">
@@ -1399,7 +1388,7 @@
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43">
@@ -1477,7 +1466,7 @@
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="43">
@@ -1532,13 +1521,13 @@
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="33"/>
       <c r="E46" s="67"/>
       <c r="F46" s="57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -1612,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H16:H17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B18:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1629,7 +1618,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1649,7 +1638,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="29"/>
@@ -1708,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>2</v>
@@ -1721,7 +1710,7 @@
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="34"/>
@@ -1744,7 +1733,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
@@ -1762,7 +1751,7 @@
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
@@ -1780,26 +1769,22 @@
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41">
-        <v>5</v>
-      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="65" t="s">
-        <v>35</v>
-      </c>
+      <c r="G16" s="65"/>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
@@ -1821,12 +1806,12 @@
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1847,14 +1832,10 @@
       <c r="C19" s="56">
         <v>42779</v>
       </c>
-      <c r="D19" s="39">
-        <v>6</v>
-      </c>
+      <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="64" t="s">
-        <v>34</v>
-      </c>
+      <c r="G19" s="64"/>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
@@ -1868,9 +1849,7 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="65" t="s">
-        <v>34</v>
-      </c>
+      <c r="G20" s="65"/>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
@@ -1918,12 +1897,12 @@
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -2006,7 +1985,7 @@
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43">
@@ -2094,7 +2073,7 @@
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43">
@@ -2182,7 +2161,7 @@
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="43">
@@ -2205,7 +2184,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
@@ -2237,13 +2216,13 @@
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="55"/>
       <c r="E46" s="67"/>
       <c r="F46" s="60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -2318,7 +2297,7 @@
   <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2334,7 +2313,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2354,7 +2333,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="29"/>
@@ -2413,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>2</v>
@@ -2426,7 +2405,7 @@
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="34"/>
@@ -2449,7 +2428,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
@@ -2484,7 +2463,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
@@ -2502,7 +2481,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
@@ -2520,14 +2499,14 @@
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -2608,7 +2587,7 @@
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -2686,7 +2665,7 @@
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="43">
@@ -2764,7 +2743,7 @@
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43">
@@ -2842,7 +2821,7 @@
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="43">
@@ -2897,13 +2876,13 @@
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="55"/>
       <c r="E46" s="67"/>
       <c r="F46" s="60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -2976,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2993,7 +2972,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3013,7 +2992,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="29"/>
@@ -3072,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>2</v>
@@ -3085,7 +3064,7 @@
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="34"/>
@@ -3108,7 +3087,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
@@ -3171,7 +3150,7 @@
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -3262,7 +3241,7 @@
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -3350,7 +3329,7 @@
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="43">
@@ -3438,7 +3417,7 @@
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43">
@@ -3526,7 +3505,7 @@
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="43">
@@ -3581,13 +3560,13 @@
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="55"/>
       <c r="E46" s="67"/>
       <c r="F46" s="60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Uur week</t>
+  </si>
+  <si>
+    <t>Met menno wat overlegd over de normalisatie.</t>
   </si>
 </sst>
 </file>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B42"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1174,17 +1177,21 @@
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="56">
         <v>42780</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="41">
+        <v>4</v>
+      </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
@@ -1198,7 +1205,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
@@ -1212,7 +1219,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
@@ -1226,7 +1233,7 @@
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
@@ -1237,7 +1244,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -1489,7 +1496,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
@@ -1601,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B42" sqref="B18:B42"/>
     </sheetView>
   </sheetViews>
@@ -2955,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -122,6 +127,15 @@
   </si>
   <si>
     <t>Met menno wat overlegd over de normalisatie.</t>
+  </si>
+  <si>
+    <t>kerntaak 1 afwerken, planning maken kertaak 2 en volgende week. Examen engels (2uur) voor bereiden</t>
+  </si>
+  <si>
+    <t>Normaliseren</t>
+  </si>
+  <si>
+    <t>Normaliseren en opstart test database</t>
   </si>
 </sst>
 </file>
@@ -598,8 +612,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -643,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,9 +697,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,7 +734,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1609,7 +1623,7 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B42" sqref="B18:B42"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1781,17 +1795,21 @@
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="56">
         <v>42775</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="41">
+        <v>5</v>
+      </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
@@ -1818,7 +1836,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="43">
         <f>SUM(D13:D17)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E18" s="43">
         <f>SUM(E13:E17)</f>
@@ -1839,10 +1857,14 @@
       <c r="C19" s="56">
         <v>42779</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>6</v>
+      </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="64" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
@@ -1853,10 +1875,14 @@
       <c r="C20" s="56">
         <v>42780</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="41">
+        <v>5</v>
+      </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="65" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
@@ -1909,7 +1935,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -2191,7 +2217,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +131,9 @@
   </si>
   <si>
     <t>Normaliseren en opstart test database</t>
+  </si>
+  <si>
+    <t>Normalisatie gedaan met menno en database opzetten en engelse toetsen gemaakt morgen bootrap op test databse gooien</t>
   </si>
 </sst>
 </file>
@@ -612,8 +610,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -657,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -697,9 +695,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,7 +767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -945,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1209,17 +1207,21 @@
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="56">
         <v>42781</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="41">
+        <v>4</v>
+      </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
@@ -1258,7 +1260,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -1510,7 +1512,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
@@ -1622,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Normalisatie gedaan met menno en database opzetten en engelse toetsen gemaakt morgen bootrap op test databse gooien</t>
+  </si>
+  <si>
+    <t>Database en normalisatie is goed en ontwikkelings omgeving opnieuw ingesteld gekoppeld met Xamp, github en Netbeans. Getest of je branches en issues kan aanmaken en merge met success we gaan er vanuit dat er geen merge conflicts komen en mocht deze voorkomen dan weet ik hoe deze moet worden opgelost.</t>
   </si>
 </sst>
 </file>
@@ -943,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1225,17 +1228,21 @@
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="120" x14ac:dyDescent="0.2">
       <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="56">
         <v>42782</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="41">
+        <v>7</v>
+      </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
@@ -1260,7 +1267,7 @@
       <c r="C24" s="42"/>
       <c r="D24" s="43">
         <f>SUM(D19:D23)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43">
@@ -1512,7 +1519,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>Database en normalisatie is goed en ontwikkelings omgeving opnieuw ingesteld gekoppeld met Xamp, github en Netbeans. Getest of je branches en issues kan aanmaken en merge met success we gaan er vanuit dat er geen merge conflicts komen en mocht deze voorkomen dan weet ik hoe deze moet worden opgelost.</t>
+  </si>
+  <si>
+    <t>Database genormaliseerd en uitzoeken hoe we de extensie van de website gaan maken.</t>
+  </si>
+  <si>
+    <t>Opzoek naar een manier om de leden overzichtelijk te implementeren of alternatieve manier om dit voor elkaar te krijgen.</t>
+  </si>
+  <si>
+    <t>Menno heeft een plugin van bootstrap gevonden om een data tabel te maken dat wij kunnen gebruiken om alle leden in te laten zien en sorteren op naam, oraganisatie, woonplaats enz.</t>
+  </si>
+  <si>
+    <t>Ziek.</t>
+  </si>
+  <si>
+    <t>Uitgezocht hoe de plugin werkt en hoe je de data uit het database kan halen.</t>
+  </si>
+  <si>
+    <t>Tabellen werken nu wij zijn nu bezig om een manier te vinden hoe we de data op de juiste plekken kunnen implementeren.</t>
   </si>
 </sst>
 </file>
@@ -214,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -292,19 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -410,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -515,48 +520,45 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -569,10 +571,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,16 +586,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1015,7 @@
     </row>
     <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="F8" s="29"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1047,138 +1049,138 @@
       <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="26"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>42772</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="61">
         <v>6</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="57" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="55">
         <v>42773</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="62">
         <v>4</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="59" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="58" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="55">
         <v>42774</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="62">
         <v>4</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="59" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="58" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>42775</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>5</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="65" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="64" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <v>42776</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62">
         <v>7</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42">
         <f>SUM(D13:D17)</f>
         <v>19</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>SUM(E13:E17)</f>
         <v>7</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="28"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>42779</v>
       </c>
       <c r="D19" s="39">
@@ -1186,329 +1188,369 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="55">
         <v>42780</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <v>4</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="59" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="58" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="55">
         <v>42781</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <v>4</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="59" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="58" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="55">
         <v>42782</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="40">
         <v>7</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="59" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="58" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+    <row r="23" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="55">
         <v>42783</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="59"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="58" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42">
         <f>SUM(D19:D23)</f>
         <v>22</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+    <row r="25" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="55">
+        <v>42793</v>
+      </c>
+      <c r="D25" s="39">
+        <v>7</v>
+      </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="57" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="55">
+        <v>42794</v>
+      </c>
+      <c r="D26" s="40">
+        <v>4</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="58" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="55">
+        <v>42795</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40">
+        <v>4</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+    <row r="28" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="55">
+        <v>42796</v>
+      </c>
+      <c r="D28" s="40">
+        <v>7</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="58" t="s">
+        <v>44</v>
+      </c>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+    <row r="29" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="55">
+        <v>42797</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="43">
+      <c r="C30" s="55"/>
+      <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+        <v>18</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
         <f>SUM(F25:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="51"/>
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="55">
+        <v>42800</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="51"/>
+      <c r="C32" s="55">
+        <v>42801</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="51"/>
+      <c r="C33" s="55">
+        <v>42802</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="51"/>
+      <c r="C34" s="55">
+        <v>42803</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="51"/>
+      <c r="C35" s="55">
+        <v>42804</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43">
+      <c r="E36" s="42"/>
+      <c r="F36" s="42">
         <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="51"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="51"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="51"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42">
         <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
@@ -1519,14 +1561,14 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="G43" s="52"/>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -1550,13 +1592,13 @@
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="57" t="s">
+      <c r="E46" s="66"/>
+      <c r="F46" s="56" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="21"/>
@@ -1631,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1641,8 +1683,8 @@
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="33" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
     <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -1698,7 +1740,7 @@
     </row>
     <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="F8" s="29"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1732,29 +1774,29 @@
       <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="26"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -1762,108 +1804,108 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="63" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="55">
         <v>42773</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="40">
         <v>4</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="65" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="64" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="55">
         <v>42774</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>4</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="65" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="64" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>42775</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>5</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="65" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <v>42776</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40">
         <v>7</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42">
         <f>SUM(D13:D17)</f>
         <v>19</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>SUM(E13:E17)</f>
         <v>7</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="28"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>42779</v>
       </c>
       <c r="D19" s="39">
@@ -1871,351 +1913,351 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="55">
         <v>42780</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <v>5</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="65" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="64" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="55">
         <v>42781</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="55">
         <v>42782</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="55">
         <v>42783</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="65"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42">
         <f>SUM(D19:D23)</f>
         <v>11</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="55">
         <v>42786</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="64"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="55">
         <v>42787</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="65"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="55">
         <v>42788</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <v>42789</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="65"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <v>42790</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43">
+      <c r="C30" s="41"/>
+      <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
         <f>SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <v>42793</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="64"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="55">
         <v>42794</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="65"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="55">
         <v>42795</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="55">
         <v>42796</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="65"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="55">
         <v>42797</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="65"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43">
+      <c r="E36" s="42"/>
+      <c r="F36" s="42">
         <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="66"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="55">
         <v>42800</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="64"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="55">
         <v>42801</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="65"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="55">
         <v>42802</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="55">
         <v>42803</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="65"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="55">
         <v>42804</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42">
         <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
@@ -2233,7 +2275,7 @@
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -2257,13 +2299,13 @@
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="60" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="21"/>
@@ -2338,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2348,8 +2390,8 @@
     <col min="2" max="2" width="13.42578125" style="23"/>
     <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
     <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="33" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
     <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -2405,7 +2447,7 @@
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="F8" s="29"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2439,29 +2481,29 @@
       <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="26"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -2469,7 +2511,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="27"/>
@@ -2477,405 +2519,425 @@
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="55">
         <v>42773</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40">
         <v>5</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="55">
         <v>42774</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>4</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="59" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="58" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>42775</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>4</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="59" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <v>42776</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>3</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="59" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="58" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42">
         <f>SUM(D13:D17)</f>
         <v>14</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>SUM(E13:E17)</f>
         <v>5</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="28"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="51"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="51"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="51"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42">
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="55">
+        <v>42793</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="55">
+        <v>42794</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="55">
+        <v>42795</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="55">
+        <v>42796</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="55">
+        <v>42797</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="43">
+      <c r="C30" s="55"/>
+      <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
         <f>SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="55">
+        <v>42800</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="51"/>
+      <c r="C32" s="55">
+        <v>42801</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="51"/>
+      <c r="C33" s="55">
+        <v>42802</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="51"/>
+      <c r="C34" s="55">
+        <v>42803</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="51"/>
+      <c r="C35" s="55">
+        <v>42804</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43">
+      <c r="E36" s="42"/>
+      <c r="F36" s="42">
         <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="51"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="51"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="51"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42">
         <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
@@ -2893,7 +2955,7 @@
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -2917,13 +2979,13 @@
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="60" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="21"/>
@@ -2997,18 +3059,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="8.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33" style="54" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="33" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
     <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -3064,7 +3126,7 @@
     </row>
     <row r="8" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="F8" s="29"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3098,29 +3160,29 @@
       <c r="F11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="26"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -3128,438 +3190,428 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="60">
         <v>42773</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="51"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="27"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="60">
         <v>42774</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="51"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="27"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <v>42775</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="27"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <v>42776</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42">
         <f>SUM(D13:D17)</f>
         <v>5</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>SUM(E13:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="28"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <v>42779</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="27"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <v>42780</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="51"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="27"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="60">
         <v>42781</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="51"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="60">
         <v>42782</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="51"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="60">
         <v>42783</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="51"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43">
+      <c r="C24" s="41"/>
+      <c r="D24" s="42">
         <f>SUM(D19:D23)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42">
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="61">
-        <v>42786</v>
+      <c r="C25" s="55">
+        <v>42793</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="61">
-        <v>42787</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="55">
+        <v>42794</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="61">
-        <v>42788</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="55">
+        <v>42795</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="61">
-        <v>42789</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="55">
+        <v>42796</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="61">
-        <v>42790</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="55">
+        <v>42797</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="43">
+      <c r="C30" s="55"/>
+      <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
         <f>SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="61">
-        <v>42793</v>
+      <c r="C31" s="55">
+        <v>42800</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="61">
-        <v>42794</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="51"/>
+      <c r="C32" s="55">
+        <v>42801</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="61">
-        <v>42795</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="51"/>
+      <c r="C33" s="55">
+        <v>42802</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="61">
-        <v>42796</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="51"/>
+      <c r="C34" s="55">
+        <v>42803</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="61">
-        <v>42797</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="51"/>
+      <c r="C35" s="55">
+        <v>42804</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43">
+      <c r="E36" s="42"/>
+      <c r="F36" s="42">
         <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="61">
-        <v>42889</v>
-      </c>
+      <c r="C37" s="60"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="61">
-        <v>42890</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="51"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="61">
-        <v>42891</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="51"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="61">
-        <v>42892</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="51"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="61">
-        <v>42893</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42">
         <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
@@ -3577,7 +3629,7 @@
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -3601,13 +3653,13 @@
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="60" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="21"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -155,6 +160,21 @@
   </si>
   <si>
     <t>Tabellen werken nu wij zijn nu bezig om een manier te vinden hoe we de data op de juiste plekken kunnen implementeren.</t>
+  </si>
+  <si>
+    <t>Technisch  ontwerp</t>
+  </si>
+  <si>
+    <t>Technisch ontwerp, Planning programmeren</t>
+  </si>
+  <si>
+    <t>Planning programmeren</t>
+  </si>
+  <si>
+    <t>Gesprek Paul Jurrians, verwerken nieuwe ideen</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
   </si>
 </sst>
 </file>
@@ -702,7 +722,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1673,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2380,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2613,7 +2633,9 @@
       <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="55">
+        <v>42779</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -2625,7 +2647,9 @@
       <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="55">
+        <v>42780</v>
+      </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
@@ -2637,7 +2661,9 @@
       <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="55">
+        <v>42781</v>
+      </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -2649,7 +2675,9 @@
       <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="55">
+        <v>42782</v>
+      </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
@@ -2661,7 +2689,9 @@
       <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="55">
+        <v>42783</v>
+      </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -2694,10 +2724,14 @@
       <c r="C25" s="55">
         <v>42793</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>3</v>
+      </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="49"/>
+      <c r="G25" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
@@ -2722,10 +2756,14 @@
       <c r="C27" s="55">
         <v>42795</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="40">
+        <v>5</v>
+      </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="50"/>
+      <c r="G27" s="50" t="s">
+        <v>47</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
@@ -2736,10 +2774,14 @@
       <c r="C28" s="55">
         <v>42796</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40">
+        <v>3</v>
+      </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="50"/>
+      <c r="G28" s="50" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
@@ -2764,7 +2806,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42">
@@ -2782,10 +2824,14 @@
       <c r="C31" s="55">
         <v>42800</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>3</v>
+      </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="49"/>
+      <c r="G31" s="49" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
@@ -2796,10 +2842,14 @@
       <c r="C32" s="55">
         <v>42801</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="40">
+        <v>2</v>
+      </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
@@ -2852,7 +2902,7 @@
       <c r="C36" s="41"/>
       <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42">
@@ -2948,7 +2998,7 @@
       </c>
       <c r="D43" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36">
@@ -3059,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +170,39 @@
   </si>
   <si>
     <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Vrijdag / Zaterdag</t>
+  </si>
+  <si>
+    <t>Data staat de goed manier in de tabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemen gekregen met de tabel we moeten een andere manier zien te vinden de data op de tabel te krijgen. </t>
+  </si>
+  <si>
+    <t>plan uitbedacht hoe we de data juist kunnen krijgen en deze morge in werking zetten.</t>
+  </si>
+  <si>
+    <t>Tabel is nu goed met alle elementen die erin moeten staan nu bedenken samen met Menno hoe we de buttons gaan doen en waar deze nog moeten komen te staan.</t>
+  </si>
+  <si>
+    <t>Ik ben bezig met het maken voor de modal (pop-up) om de informatie te laten weergeven is niet al te moeilijk hoop ik.</t>
+  </si>
+  <si>
+    <t>Modals maken ging lastiger dan dat ik had gedacht heb ze nu wel gemaakt.</t>
+  </si>
+  <si>
+    <t>Nu ben ik bezig met menno de functionaliteit te maken voor de buttons alle elementen voor een lid toetevoegen staan al in de modal moeten alleen nog via jQuery en ajax deze gegevens door kunnen sturen naar de database om ze toe te voegen.</t>
+  </si>
+  <si>
+    <t>Websites door kijken hoe ik data kan laten opslaan in de database.</t>
+  </si>
+  <si>
+    <t>In mijn vrije tijd even doorkijken hoe ik de data moet doorsturen en ophalen van de database.</t>
+  </si>
+  <si>
+    <t>17-3-2017 18-3-2017</t>
   </si>
 </sst>
 </file>
@@ -582,44 +610,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -722,7 +750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,7 +785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,22 +996,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1022,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1003,7 +1031,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1047,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1040,7 +1068,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1091,15 +1119,15 @@
       <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>42772</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="59">
         <v>6</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="56" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="27"/>
@@ -1109,15 +1137,15 @@
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>42773</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="60">
         <v>4</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="27"/>
@@ -1127,15 +1155,15 @@
       <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>42774</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="60">
         <v>4</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="27"/>
@@ -1145,15 +1173,15 @@
       <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>42775</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="60">
         <v>5</v>
       </c>
-      <c r="E16" s="62"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="62" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="27"/>
@@ -1163,11 +1191,11 @@
       <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>42776</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60">
         <v>7</v>
       </c>
       <c r="F17" s="40"/>
@@ -1200,7 +1228,7 @@
       <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>42779</v>
       </c>
       <c r="D19" s="39">
@@ -1208,7 +1236,7 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="56" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="27"/>
@@ -1218,7 +1246,7 @@
       <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>42780</v>
       </c>
       <c r="D20" s="40">
@@ -1226,7 +1254,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="57" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="27"/>
@@ -1236,7 +1264,7 @@
       <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>42781</v>
       </c>
       <c r="D21" s="40">
@@ -1244,7 +1272,7 @@
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="57" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="27"/>
@@ -1254,7 +1282,7 @@
       <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>42782</v>
       </c>
       <c r="D22" s="40">
@@ -1262,7 +1290,7 @@
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="57" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="27"/>
@@ -1272,13 +1300,13 @@
       <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>42783</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="57" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="27"/>
@@ -1306,7 +1334,7 @@
       <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>42793</v>
       </c>
       <c r="D25" s="39">
@@ -1314,7 +1342,7 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="56" t="s">
         <v>41</v>
       </c>
       <c r="H25" s="27"/>
@@ -1324,7 +1352,7 @@
       <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>42794</v>
       </c>
       <c r="D26" s="40">
@@ -1332,17 +1360,17 @@
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="57" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>42795</v>
       </c>
       <c r="D27" s="40"/>
@@ -1350,7 +1378,7 @@
       <c r="F27" s="40">
         <v>4</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="57" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="27"/>
@@ -1360,7 +1388,7 @@
       <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>42796</v>
       </c>
       <c r="D28" s="40">
@@ -1368,7 +1396,7 @@
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="57" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="27"/>
@@ -1378,13 +1406,13 @@
       <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>42797</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="57" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="27"/>
@@ -1394,7 +1422,7 @@
       <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>18</v>
@@ -1412,55 +1440,71 @@
       <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>42800</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>7</v>
+      </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="49"/>
+      <c r="G31" s="49" t="s">
+        <v>52</v>
+      </c>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>42801</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="40">
+        <v>4</v>
+      </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="50"/>
+      <c r="G32" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>42802</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="40">
+        <v>4</v>
+      </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="50"/>
+      <c r="G33" s="57" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="57" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>42803</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="40">
+        <v>7</v>
+      </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="57" t="s">
+        <v>55</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
@@ -1468,7 +1512,7 @@
       <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <v>42804</v>
       </c>
       <c r="D35" s="40"/>
@@ -1478,14 +1522,14 @@
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42">
@@ -1496,74 +1540,104 @@
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="39"/>
+      <c r="C37" s="54">
+        <v>42807</v>
+      </c>
+      <c r="D37" s="39">
+        <v>7</v>
+      </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="49"/>
+      <c r="G37" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="54">
+        <v>42808</v>
+      </c>
+      <c r="D38" s="40">
+        <v>4</v>
+      </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="50"/>
+      <c r="G38" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="79.8" x14ac:dyDescent="0.2">
       <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="40"/>
+      <c r="C39" s="54">
+        <v>42809</v>
+      </c>
+      <c r="D39" s="40">
+        <v>4</v>
+      </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="50"/>
+      <c r="G39" s="57" t="s">
+        <v>58</v>
+      </c>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="40"/>
+      <c r="C40" s="54">
+        <v>42810</v>
+      </c>
+      <c r="D40" s="40">
+        <v>7</v>
+      </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="57" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="B41" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="40">
+        <v>8</v>
+      </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="50"/>
+      <c r="G41" s="57" t="s">
+        <v>60</v>
+      </c>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42">
@@ -1574,103 +1648,134 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54">
+        <v>42814</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="54">
+        <v>42815</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="54">
+        <v>42816</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="54">
+        <v>42817</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="54">
+        <v>42818</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <f>SUM(F43:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D49" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>59</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36">
+        <v>111</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>4</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B52" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="56" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
@@ -1681,7 +1786,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.17" top="0.21" bottom="0.16" header="0.25" footer="0.16"/>
@@ -1693,22 +1798,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1719,7 +1824,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1728,7 +1833,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
@@ -1744,7 +1849,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1765,7 +1870,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1816,7 +1921,7 @@
       <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -1824,17 +1929,17 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="61" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>42773</v>
       </c>
       <c r="D14" s="40">
@@ -1842,7 +1947,7 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="62" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="27"/>
@@ -1852,7 +1957,7 @@
       <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>42774</v>
       </c>
       <c r="D15" s="40">
@@ -1860,7 +1965,7 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="62" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="27"/>
@@ -1870,7 +1975,7 @@
       <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>42775</v>
       </c>
       <c r="D16" s="40">
@@ -1878,7 +1983,7 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="62" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="27"/>
@@ -1888,7 +1993,7 @@
       <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>42776</v>
       </c>
       <c r="D17" s="40"/>
@@ -1896,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="64"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="27"/>
       <c r="I17" s="18"/>
     </row>
@@ -1917,7 +2022,7 @@
         <f>SUM(F13:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="28"/>
       <c r="I18" s="19"/>
     </row>
@@ -1925,7 +2030,7 @@
       <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>42779</v>
       </c>
       <c r="D19" s="39">
@@ -1933,7 +2038,7 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="61" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="27"/>
@@ -1943,7 +2048,7 @@
       <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>42780</v>
       </c>
       <c r="D20" s="40">
@@ -1951,7 +2056,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="62" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="27"/>
@@ -1961,13 +2066,13 @@
       <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>42781</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="27"/>
       <c r="I21" s="18"/>
     </row>
@@ -1975,13 +2080,13 @@
       <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>42782</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="64"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
@@ -1989,13 +2094,13 @@
       <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>42783</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="64"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="27"/>
       <c r="I23" s="18"/>
     </row>
@@ -2013,7 +2118,7 @@
         <f>SUM(F19:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
@@ -2021,13 +2126,13 @@
       <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>42786</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="63"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
@@ -2035,13 +2140,13 @@
       <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>42787</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="64"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
@@ -2049,13 +2154,13 @@
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>42788</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="64"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
@@ -2063,13 +2168,13 @@
       <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>42789</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="64"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="27"/>
       <c r="I28" s="18"/>
     </row>
@@ -2077,13 +2182,13 @@
       <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>42790</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="64"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
@@ -2101,7 +2206,7 @@
         <f>SUM(F25:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
@@ -2109,13 +2214,13 @@
       <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>42793</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="63"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
@@ -2123,13 +2228,13 @@
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>42794</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="64"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
@@ -2137,13 +2242,13 @@
       <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>42795</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="64"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
@@ -2151,13 +2256,13 @@
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>42796</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="64"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
@@ -2165,13 +2270,13 @@
       <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <v>42797</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="64"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
@@ -2189,7 +2294,7 @@
         <f>SUM(F31:F35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="65"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
@@ -2197,13 +2302,13 @@
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="54">
         <v>42800</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="63"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
@@ -2211,13 +2316,13 @@
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <v>42801</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="64"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
@@ -2225,13 +2330,13 @@
       <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="54">
         <v>42802</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="64"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
@@ -2239,13 +2344,13 @@
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>42803</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="64"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
@@ -2253,17 +2358,17 @@
       <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="54">
         <v>42804</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="64"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -2277,107 +2382,138 @@
         <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="65"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54">
+        <v>42814</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="54">
+        <v>42815</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="54">
+        <v>42816</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="54">
+        <v>42817</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="54">
+        <v>42818</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <f>SUM(F43:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D49" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>30</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36">
+      <c r="E49" s="36"/>
+      <c r="F49" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B52" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="59" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
@@ -2389,7 +2525,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2400,22 +2536,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -2426,7 +2562,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2435,7 +2571,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
@@ -2451,7 +2587,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2472,7 +2608,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2523,7 +2659,7 @@
       <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -2531,7 +2667,7 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="56" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="27"/>
@@ -2542,7 +2678,7 @@
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>42773</v>
       </c>
       <c r="D14" s="40"/>
@@ -2558,7 +2694,7 @@
       <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>42774</v>
       </c>
       <c r="D15" s="40">
@@ -2566,7 +2702,7 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="27"/>
@@ -2576,7 +2712,7 @@
       <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>42775</v>
       </c>
       <c r="D16" s="40">
@@ -2584,7 +2720,7 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="57" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="27"/>
@@ -2594,7 +2730,7 @@
       <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>42776</v>
       </c>
       <c r="D17" s="40">
@@ -2602,7 +2738,7 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="57" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="27"/>
@@ -2633,7 +2769,7 @@
       <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>42779</v>
       </c>
       <c r="D19" s="39"/>
@@ -2647,7 +2783,7 @@
       <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>42780</v>
       </c>
       <c r="D20" s="40"/>
@@ -2661,7 +2797,7 @@
       <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>42781</v>
       </c>
       <c r="D21" s="40"/>
@@ -2675,7 +2811,7 @@
       <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>42782</v>
       </c>
       <c r="D22" s="40"/>
@@ -2689,7 +2825,7 @@
       <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>42783</v>
       </c>
       <c r="D23" s="40"/>
@@ -2721,7 +2857,7 @@
       <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>42793</v>
       </c>
       <c r="D25" s="39">
@@ -2739,7 +2875,7 @@
       <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>42794</v>
       </c>
       <c r="D26" s="40"/>
@@ -2753,7 +2889,7 @@
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>42795</v>
       </c>
       <c r="D27" s="40">
@@ -2771,7 +2907,7 @@
       <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>42796</v>
       </c>
       <c r="D28" s="40">
@@ -2789,7 +2925,7 @@
       <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>42797</v>
       </c>
       <c r="D29" s="40"/>
@@ -2803,7 +2939,7 @@
       <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>11</v>
@@ -2821,7 +2957,7 @@
       <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>42800</v>
       </c>
       <c r="D31" s="39">
@@ -2839,7 +2975,7 @@
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>42801</v>
       </c>
       <c r="D32" s="40">
@@ -2857,7 +2993,7 @@
       <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>42802</v>
       </c>
       <c r="D33" s="40"/>
@@ -2871,7 +3007,7 @@
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>42803</v>
       </c>
       <c r="D34" s="40"/>
@@ -2885,7 +3021,7 @@
       <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <v>42804</v>
       </c>
       <c r="D35" s="40"/>
@@ -2917,7 +3053,7 @@
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -2929,7 +3065,7 @@
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="55"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
@@ -2941,7 +3077,7 @@
       <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
@@ -2953,7 +3089,7 @@
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
@@ -2965,7 +3101,7 @@
       <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -2973,7 +3109,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -2991,103 +3127,134 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54">
+        <v>42814</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="54">
+        <v>42815</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="54">
+        <v>42816</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="54">
+        <v>42817</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="54">
+        <v>42818</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <f>SUM(F43:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D49" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>30</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36">
+      <c r="E49" s="36"/>
+      <c r="F49" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="59" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
@@ -3099,7 +3266,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3110,21 +3277,21 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B42" sqref="B42:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3302,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3144,7 +3311,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3327,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -3181,7 +3348,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3232,7 +3399,7 @@
       <c r="B13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="58">
         <v>42772</v>
       </c>
       <c r="D13" s="39">
@@ -3250,7 +3417,7 @@
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="58">
         <v>42773</v>
       </c>
       <c r="D14" s="40"/>
@@ -3264,7 +3431,7 @@
       <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="58">
         <v>42774</v>
       </c>
       <c r="D15" s="40"/>
@@ -3278,7 +3445,7 @@
       <c r="B16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="58">
         <v>42775</v>
       </c>
       <c r="D16" s="40"/>
@@ -3292,7 +3459,7 @@
       <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="58">
         <v>42776</v>
       </c>
       <c r="D17" s="40"/>
@@ -3327,7 +3494,7 @@
       <c r="B19" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="58">
         <v>42779</v>
       </c>
       <c r="D19" s="39"/>
@@ -3341,7 +3508,7 @@
       <c r="B20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="58">
         <v>42780</v>
       </c>
       <c r="D20" s="40"/>
@@ -3355,7 +3522,7 @@
       <c r="B21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="58">
         <v>42781</v>
       </c>
       <c r="D21" s="40"/>
@@ -3369,7 +3536,7 @@
       <c r="B22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="58">
         <v>42782</v>
       </c>
       <c r="D22" s="40"/>
@@ -3383,7 +3550,7 @@
       <c r="B23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="58">
         <v>42783</v>
       </c>
       <c r="D23" s="40"/>
@@ -3415,7 +3582,7 @@
       <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <v>42793</v>
       </c>
       <c r="D25" s="39"/>
@@ -3429,7 +3596,7 @@
       <c r="B26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <v>42794</v>
       </c>
       <c r="D26" s="40"/>
@@ -3443,7 +3610,7 @@
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <v>42795</v>
       </c>
       <c r="D27" s="40"/>
@@ -3457,7 +3624,7 @@
       <c r="B28" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <v>42796</v>
       </c>
       <c r="D28" s="40"/>
@@ -3471,7 +3638,7 @@
       <c r="B29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <v>42797</v>
       </c>
       <c r="D29" s="40"/>
@@ -3485,7 +3652,7 @@
       <c r="B30" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
         <v>0</v>
@@ -3503,7 +3670,7 @@
       <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>42800</v>
       </c>
       <c r="D31" s="39"/>
@@ -3517,7 +3684,7 @@
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <v>42801</v>
       </c>
       <c r="D32" s="40"/>
@@ -3531,7 +3698,7 @@
       <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <v>42802</v>
       </c>
       <c r="D33" s="40"/>
@@ -3545,7 +3712,7 @@
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>42803</v>
       </c>
       <c r="D34" s="40"/>
@@ -3559,7 +3726,7 @@
       <c r="B35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="54">
         <v>42804</v>
       </c>
       <c r="D35" s="40"/>
@@ -3591,7 +3758,7 @@
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="60"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -3603,7 +3770,7 @@
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
@@ -3615,7 +3782,7 @@
       <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="60"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
@@ -3627,7 +3794,7 @@
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
@@ -3639,7 +3806,7 @@
       <c r="B41" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -3647,7 +3814,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -3665,103 +3832,134 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54">
+        <v>42814</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="54">
+        <v>42815</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="54">
+        <v>42816</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="54">
+        <v>42817</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="54">
+        <v>42818</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <f>SUM(F43:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D49" s="36">
         <f>SUM(D18+D24+D30+D36+D42)</f>
         <v>5</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36">
+      <c r="E49" s="36"/>
+      <c r="F49" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="67" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B52" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="59" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
@@ -3773,7 +3971,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>17-3-2017 18-3-2017</t>
+  </si>
+  <si>
+    <t>Values worden correct uit de velden gehaald nu bezig met het doorgeven naar een query om deze doortegeven aan het database.</t>
+  </si>
+  <si>
+    <t>Bezig met het proberen van de values toevoegen aan de database.</t>
+  </si>
+  <si>
+    <t>Opgezocht hoe ik de value van de input velden kan doorgeven aan de database.</t>
+  </si>
+  <si>
+    <t>Je kan nu successvol leden toevoegen aan de database nu kijken hoe we de persoon nr en organisatie nr aan deze leden kan toeverwijzen zodat deze in het ledenregister word weergegeven.</t>
   </si>
 </sst>
 </file>
@@ -994,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G55" sqref="B48:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1648,59 +1660,75 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="54">
         <v>42814</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>7</v>
+      </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="54">
         <v>42815</v>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="40">
+        <v>4</v>
+      </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="57"/>
+      <c r="G44" s="57" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="45.6" x14ac:dyDescent="0.2">
       <c r="B45" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="54">
         <v>42816</v>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="40">
+        <v>4</v>
+      </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="57"/>
+      <c r="G45" s="57" t="s">
+        <v>62</v>
+      </c>
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="54">
         <v>42817</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="40">
+        <v>7</v>
+      </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="57"/>
+      <c r="G46" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1723,7 +1751,7 @@
       <c r="C48" s="41"/>
       <c r="D48" s="42">
         <f>SUM(D43:D47)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42">
@@ -1733,60 +1761,129 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="35" t="s">
+    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="54">
+        <v>42821</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="54">
+        <v>42822</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="54">
+        <v>42823</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="57"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="54">
+        <v>42824</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="57"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="54">
+        <v>42825</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="57"/>
+    </row>
+    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42">
+        <f>SUM(D49:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42">
+        <f>SUM(F49:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="36">
-        <f>SUM(D18+D24+D30+D36+D42)</f>
-        <v>111</v>
-      </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36">
+      <c r="D55" s="36">
+        <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
+        <v>133</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B52" s="67" t="s">
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+      <c r="B58" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="55" t="s">
+      <c r="C58" s="68"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="G58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.17" top="0.21" bottom="0.16" header="0.25" footer="0.16"/>
@@ -1796,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G52"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2471,61 +2568,102 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="35" t="s">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="54">
+        <v>42821</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="54">
+        <v>42822</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="54">
+        <v>42823</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="57"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="54">
+        <v>42824</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="57"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="54">
+        <v>42825</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="57"/>
+    </row>
+    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42">
+        <f>SUM(D49:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42">
+        <f>SUM(F49:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="36">
-        <f>SUM(D18+D24+D30+D36+D42)</f>
+      <c r="D55" s="36">
+        <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
         <v>30</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36">
+      <c r="E55" s="36"/>
+      <c r="F55" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
-      <c r="B52" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="G55" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2534,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I53"/>
+  <dimension ref="A2:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G52"/>
+      <selection activeCell="B48" sqref="B48:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3212,61 +3350,102 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="35" t="s">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="54">
+        <v>42821</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="54">
+        <v>42822</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="54">
+        <v>42823</v>
+      </c>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="57"/>
+    </row>
+    <row r="52" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="54">
+        <v>42824</v>
+      </c>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="57"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="54">
+        <v>42825</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="57"/>
+    </row>
+    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42">
+        <f>SUM(D49:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42">
+        <f>SUM(F49:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="36">
-        <f>SUM(D18+D24+D30+D36+D42)</f>
+      <c r="D55" s="36">
+        <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
         <v>30</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36">
+      <c r="E55" s="36"/>
+      <c r="F55" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="G55" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3276,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:G52"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3837,7 +4016,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="54">
-        <v>42814</v>
+        <v>42821</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -3851,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="54">
-        <v>42815</v>
+        <v>42822</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -3865,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="54">
-        <v>42816</v>
+        <v>42823</v>
       </c>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -3879,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="54">
-        <v>42817</v>
+        <v>42824</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
@@ -3892,7 +4071,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="54">
-        <v>42818</v>
+        <v>42825</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
@@ -3923,12 +4102,12 @@
         <v>3</v>
       </c>
       <c r="D49" s="36">
-        <f>SUM(D18+D24+D30+D36+D42)</f>
+        <f>SUM(D12+D18+D24+D30+D36+D42+D48)</f>
         <v>5</v>
       </c>
       <c r="E49" s="36"/>
       <c r="F49" s="36">
-        <f>SUM(F18+F24+F30+F36+F42)</f>
+        <f>SUM(F12+F18+F24+F30+F36)</f>
         <v>0</v>
       </c>
       <c r="G49" s="52"/>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -215,6 +220,39 @@
   </si>
   <si>
     <t>Je kan nu successvol leden toevoegen aan de database nu kijken hoe we de persoon nr en organisatie nr aan deze leden kan toeverwijzen zodat deze in het ledenregister word weergegeven.</t>
+  </si>
+  <si>
+    <t>Database "klaar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database aanpassen, Tags zijn overbodig vanwege de search function in DataTables </t>
+  </si>
+  <si>
+    <t>Oude code eruit gegooid en hetzelfde principe terug gezet (maar dan in een nette manier)</t>
+  </si>
+  <si>
+    <t>Ux Ui gevolgd in de middag</t>
+  </si>
+  <si>
+    <t>Bootstrap beginnen en standaard html aanmaken</t>
+  </si>
+  <si>
+    <t>"DataTable" plugin voor Bootstrap gevonden. Wonderfull plugin. 50% kans dat iets het breek. Maar werkt mooi</t>
+  </si>
+  <si>
+    <t>Veel gewerkt om de Volledige tabel in een &lt;table&gt; te krijgen. SQL voor hoger onderwijs erbij gepakt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitzoeken SQL meerdere tabellen in 1 nieuwe tabel zetten. Gepsrek gehad met Paul Jurjens(de klant) </t>
+  </si>
+  <si>
+    <t>Ajax tutorials volgen</t>
+  </si>
+  <si>
+    <t>Javascript erbij samen met Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werken met Jeffrey aan Registreren van </t>
   </si>
 </sst>
 </file>
@@ -675,8 +713,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -720,9 +758,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -760,9 +798,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,7 +870,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1008,22 +1046,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G55" sqref="B48:G55"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1072,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1043,7 +1081,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1097,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1080,7 +1118,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1378,7 +1416,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1504,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1522,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B33" s="44" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1540,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="60" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1572,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1590,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1608,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1626,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="79.8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="96" x14ac:dyDescent="0.2">
       <c r="B39" s="44" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1644,7 @@
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1662,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B41" s="44" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +1680,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1698,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1716,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1734,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B45" s="44" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1752,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1782,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1860,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1876,7 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="35" t="s">
         <v>3</v>
@@ -1854,7 +1892,7 @@
       </c>
       <c r="G55" s="52"/>
     </row>
-    <row r="56" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="7"/>
@@ -1869,7 +1907,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="67" t="s">
         <v>11</v>
       </c>
@@ -1895,22 +1933,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:G55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1921,7 +1959,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1930,7 +1968,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +1984,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1967,7 +2005,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2032,7 +2070,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +2187,7 @@
         <v>42780</v>
       </c>
       <c r="D20" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
@@ -2166,7 +2204,9 @@
       <c r="C21" s="54">
         <v>42781</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="40">
+        <v>4</v>
+      </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="62"/>
@@ -2180,10 +2220,14 @@
       <c r="C22" s="54">
         <v>42782</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="40">
+        <v>5</v>
+      </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="62"/>
+      <c r="G22" s="62" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="18"/>
     </row>
@@ -2195,7 +2239,9 @@
         <v>42783</v>
       </c>
       <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="40">
+        <v>7</v>
+      </c>
       <c r="F23" s="40"/>
       <c r="G23" s="62"/>
       <c r="H23" s="27"/>
@@ -2208,7 +2254,7 @@
       <c r="C24" s="41"/>
       <c r="D24" s="42">
         <f>SUM(D19:D23)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="42">
@@ -2219,17 +2265,21 @@
       <c r="H24" s="28"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B25" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="54">
         <v>42786</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>6</v>
+      </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="61"/>
+      <c r="G25" s="61" t="s">
+        <v>70</v>
+      </c>
       <c r="H25" s="27"/>
       <c r="I25" s="18"/>
     </row>
@@ -2240,7 +2290,9 @@
       <c r="C26" s="54">
         <v>42787</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="40">
+        <v>4</v>
+      </c>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="62"/>
@@ -2254,10 +2306,14 @@
       <c r="C27" s="54">
         <v>42788</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="40">
+        <v>3</v>
+      </c>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="62"/>
+      <c r="G27" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
@@ -2268,7 +2324,9 @@
       <c r="C28" s="54">
         <v>42789</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40">
+        <v>5</v>
+      </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="62"/>
@@ -2283,7 +2341,9 @@
         <v>42790</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="40">
+        <v>7</v>
+      </c>
       <c r="F29" s="40"/>
       <c r="G29" s="62"/>
       <c r="H29" s="27"/>
@@ -2296,7 +2356,7 @@
       <c r="C30" s="41"/>
       <c r="D30" s="42">
         <f>SUM(D25:D29)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42">
@@ -2307,31 +2367,39 @@
       <c r="H30" s="28"/>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B31" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="54">
         <v>42793</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>6</v>
+      </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="61"/>
+      <c r="G31" s="61" t="s">
+        <v>73</v>
+      </c>
       <c r="H31" s="27"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="54">
         <v>42794</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="40">
+        <v>4</v>
+      </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="62"/>
+      <c r="G32" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="H32" s="27"/>
       <c r="I32" s="18"/>
     </row>
@@ -2342,24 +2410,30 @@
       <c r="C33" s="54">
         <v>42795</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="40">
+        <v>4</v>
+      </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="62"/>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B34" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="54">
         <v>42796</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="40">
+        <v>5</v>
+      </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="62"/>
+      <c r="G34" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
@@ -2371,7 +2445,9 @@
         <v>42797</v>
       </c>
       <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40">
+        <v>7</v>
+      </c>
       <c r="F35" s="40"/>
       <c r="G35" s="62"/>
       <c r="H35" s="27"/>
@@ -2384,7 +2460,7 @@
       <c r="C36" s="41"/>
       <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42">
@@ -2395,31 +2471,39 @@
       <c r="H36" s="28"/>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B37" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="54">
         <v>42800</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>6</v>
+      </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="61"/>
+      <c r="G37" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="H37" s="27"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="54">
         <v>42801</v>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="40">
+        <v>4</v>
+      </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="62"/>
+      <c r="G38" s="61" t="s">
+        <v>68</v>
+      </c>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
@@ -2430,24 +2514,30 @@
       <c r="C39" s="54">
         <v>42802</v>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="40">
+        <v>3</v>
+      </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
       <c r="G39" s="62"/>
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="54">
         <v>42803</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="40">
+        <v>5</v>
+      </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="62"/>
+      <c r="G40" s="62" t="s">
+        <v>67</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
@@ -2459,20 +2549,22 @@
         <v>42804</v>
       </c>
       <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="40">
+        <v>7</v>
+      </c>
       <c r="F41" s="40"/>
       <c r="G41" s="62"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="42">
         <f>SUM(D37:D41)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42">
@@ -2490,10 +2582,14 @@
       <c r="C43" s="54">
         <v>42814</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>6</v>
+      </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>74</v>
+      </c>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -2504,10 +2600,14 @@
       <c r="C44" s="54">
         <v>42815</v>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="40">
+        <v>4</v>
+      </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="57"/>
+      <c r="G44" s="57" t="s">
+        <v>75</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
@@ -2518,10 +2618,14 @@
       <c r="C45" s="54">
         <v>42816</v>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="40">
+        <v>4</v>
+      </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="57"/>
+      <c r="G45" s="57" t="s">
+        <v>76</v>
+      </c>
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
@@ -2532,7 +2636,9 @@
       <c r="C46" s="54">
         <v>42817</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="40">
+        <v>5</v>
+      </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="57"/>
@@ -2546,7 +2652,9 @@
         <v>42818</v>
       </c>
       <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="40">
+        <v>7</v>
+      </c>
       <c r="F47" s="40"/>
       <c r="G47" s="57"/>
       <c r="H47" s="21"/>
@@ -2558,7 +2666,7 @@
       <c r="C48" s="41"/>
       <c r="D48" s="42">
         <f>SUM(D43:D47)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42">
@@ -2629,7 +2737,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>33</v>
       </c>
@@ -2645,14 +2753,14 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="36">
         <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E55" s="36"/>
       <c r="F55" s="36">
@@ -2674,22 +2782,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B48" sqref="B48:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2808,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2709,7 +2817,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
@@ -2725,7 +2833,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2746,7 +2854,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3247,7 +3355,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -3411,7 +3519,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>33</v>
       </c>
@@ -3427,7 +3535,7 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="35" t="s">
         <v>3</v>
@@ -3459,18 +3567,18 @@
       <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -3481,7 +3589,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3490,7 +3598,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
@@ -3506,7 +3614,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -3527,7 +3635,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3993,7 +4101,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -4079,7 +4187,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>33</v>
       </c>
@@ -4096,7 +4204,7 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="35" t="s">
         <v>3</v>
@@ -4113,7 +4221,7 @@
       <c r="G49" s="52"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="7"/>
@@ -4128,7 +4236,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
         <v>11</v>
       </c>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\Documents\Wijkertoren-docs\Uren Verantwoording\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t xml:space="preserve">Werken met Jeffrey aan Registreren van </t>
+  </si>
+  <si>
+    <t>Examens</t>
+  </si>
+  <si>
+    <t>Kerntaak 3 opgezet</t>
+  </si>
+  <si>
+    <t>Implementatieplan</t>
+  </si>
+  <si>
+    <t>Roostervrij</t>
   </si>
 </sst>
 </file>
@@ -713,8 +725,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -758,9 +770,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -798,7 +810,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -870,7 +882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1933,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2782,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:G55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3245,7 +3257,9 @@
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
@@ -3259,7 +3273,9 @@
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="18"/>
     </row>
@@ -3270,10 +3286,14 @@
       <c r="C35" s="54">
         <v>42804</v>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="40">
+        <v>4</v>
+      </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="H35" s="27"/>
       <c r="I35" s="18"/>
     </row>
@@ -3284,7 +3304,7 @@
       <c r="C36" s="41"/>
       <c r="D36" s="42">
         <f>SUM(D31:D35)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42">
@@ -3315,7 +3335,7 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="50"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="27"/>
       <c r="I38" s="18"/>
     </row>
@@ -3351,7 +3371,7 @@
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="50"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
@@ -3380,10 +3400,14 @@
       <c r="C43" s="54">
         <v>42814</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>9</v>
+      </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
@@ -3397,7 +3421,9 @@
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="57"/>
+      <c r="G44" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
@@ -3411,7 +3437,9 @@
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="57"/>
+      <c r="G45" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
@@ -3425,7 +3453,9 @@
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="57"/>
+      <c r="G46" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3435,10 +3465,14 @@
       <c r="C47" s="54">
         <v>42818</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="40">
+        <v>5</v>
+      </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="57"/>
+      <c r="G47" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:9" s="14" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3482,7 @@
       <c r="C48" s="41"/>
       <c r="D48" s="42">
         <f>SUM(D43:D47)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E48" s="42"/>
       <c r="F48" s="42">
@@ -3542,7 +3576,7 @@
       </c>
       <c r="D55" s="36">
         <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E55" s="36"/>
       <c r="F55" s="36">

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="87">
   <si>
     <t>Datum</t>
   </si>
@@ -265,6 +260,24 @@
   </si>
   <si>
     <t>Roostervrij</t>
+  </si>
+  <si>
+    <t>Opgezocht hoe de query werkt voor het verwijderen van leden.</t>
+  </si>
+  <si>
+    <t>bezig geweest met de functie aanmaken om een lid te verwijderen.</t>
+  </si>
+  <si>
+    <t>nog steeds bezig met de functie aanmaken om een lid te verwijderen.</t>
+  </si>
+  <si>
+    <t>We hebben een code die werkt je kan leden verwijderen uit het leden register</t>
+  </si>
+  <si>
+    <t>Leden konden wel verwijderd worden en organisaties maar worden niet uit de tabellen van "personen" of "organisaties" verwijderd alleen uit "ledenrigister.</t>
+  </si>
+  <si>
+    <t>verwijderen werkt nu optimaal nu nog uitzoeken hoe je meerdere leden tegelijk kan verwijderen.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,24 +1069,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1097,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1093,7 +1106,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1122,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1130,7 +1143,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1428,7 +1441,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1669,7 @@
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1687,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="B41" s="44" t="s">
         <v>51</v>
       </c>
@@ -1692,7 +1705,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1723,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1741,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1759,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="45.6" x14ac:dyDescent="0.2">
       <c r="B45" s="44" t="s">
         <v>7</v>
       </c>
@@ -1764,7 +1777,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1807,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>33</v>
       </c>
@@ -1811,54 +1824,70 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B49" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="54">
         <v>42821</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>7</v>
+      </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="56"/>
+      <c r="G49" s="56" t="s">
+        <v>81</v>
+      </c>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B50" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="54">
         <v>42822</v>
       </c>
-      <c r="D50" s="40"/>
+      <c r="D50" s="40">
+        <v>2</v>
+      </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="57"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B51" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="54">
         <v>42823</v>
       </c>
-      <c r="D51" s="40"/>
+      <c r="D51" s="40">
+        <v>2</v>
+      </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="57"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
       <c r="B52" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="54">
         <v>42824</v>
       </c>
-      <c r="D52" s="40"/>
+      <c r="D52" s="40">
+        <v>7</v>
+      </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="57"/>
+      <c r="G52" s="57" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="44" t="s">
@@ -1872,14 +1901,14 @@
       <c r="F53" s="40"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="41"/>
       <c r="D54" s="42">
         <f>SUM(D49:D53)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42">
@@ -1888,52 +1917,133 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="35" t="s">
+    <row r="55" spans="2:8" ht="45.6" x14ac:dyDescent="0.2">
+      <c r="B55" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="54">
+        <v>42828</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="B56" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="54">
+        <v>42829</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="54">
+        <v>42830</v>
+      </c>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="57"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="54">
+        <v>42831</v>
+      </c>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="57"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="54">
+        <v>42832</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="60" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42">
+        <f>SUM(D55:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42">
+        <f>SUM(F55:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="66" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D67" s="36">
         <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
-        <v>133</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36">
+        <v>151</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36">
         <f>SUM(F18+F24+F30+F36+F42)</f>
         <v>4</v>
       </c>
-      <c r="G55" s="52"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="9"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="67" t="s">
+      <c r="G67" s="52"/>
+    </row>
+    <row r="68" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="9"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+      <c r="B70" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="55" t="s">
+      <c r="C70" s="68"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="21"/>
+      <c r="G70" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.17" top="0.21" bottom="0.16" header="0.25" footer="0.16"/>
@@ -1949,18 +2059,18 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2081,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1980,7 +2090,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
@@ -1996,7 +2106,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2017,7 +2127,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2082,7 +2192,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2715,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -2641,7 +2751,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -2713,7 +2823,7 @@
       <c r="F50" s="40"/>
       <c r="G50" s="57"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="12" x14ac:dyDescent="0.2">
       <c r="B51" s="44" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2835,7 @@
       <c r="F51" s="40"/>
       <c r="G51" s="57"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.2">
       <c r="B52" s="44" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +2847,7 @@
       <c r="F52" s="40"/>
       <c r="G52" s="57"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="12" x14ac:dyDescent="0.2">
       <c r="B53" s="44" t="s">
         <v>51</v>
       </c>
@@ -2794,22 +2904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2930,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2829,7 +2939,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
@@ -2845,7 +2955,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2866,7 +2976,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3411,7 +3521,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -3443,7 +3553,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -3541,7 +3651,7 @@
       <c r="F52" s="40"/>
       <c r="G52" s="57"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="12" x14ac:dyDescent="0.2">
       <c r="B53" s="44" t="s">
         <v>51</v>
       </c>
@@ -3601,18 +3711,18 @@
       <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="23"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="23"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.42578125" style="13"/>
+    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -3623,7 +3733,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3632,7 +3742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
@@ -3648,7 +3758,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -3669,7 +3779,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4167,7 +4277,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -4195,7 +4305,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -4208,7 +4318,7 @@
       <c r="G46" s="57"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
         <v>51</v>
       </c>
@@ -4255,7 +4365,7 @@
       <c r="G49" s="52"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="7"/>
@@ -4270,7 +4380,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
       <c r="B52" s="67" t="s">
         <v>11</v>
       </c>

--- a/Uren Verantwoording/Uren Verantwoording.xlsx
+++ b/Uren Verantwoording/Uren Verantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\Wijkertoren\Wijkertoren-docs\Uren Verantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="18972" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Uren Jeffrey Meyer" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Uren Roel Meijns" sheetId="3" r:id="rId3"/>
     <sheet name="Uren Jorrit Verheul" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="88">
   <si>
     <t>Datum</t>
   </si>
@@ -278,6 +283,9 @@
   </si>
   <si>
     <t>verwijderen werkt nu optimaal nu nog uitzoeken hoe je meerdere leden tegelijk kan verwijderen.</t>
+  </si>
+  <si>
+    <t>Kerntaak 4 (onderhoud en beheer)</t>
   </si>
 </sst>
 </file>
@@ -825,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,7 +868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,22 +1079,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1105,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1106,7 +1114,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1130,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -1143,7 +1151,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1441,7 +1449,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="44" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1677,7 @@
       <c r="H39" s="27"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B40" s="44" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1695,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="2:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B41" s="44" t="s">
         <v>51</v>
       </c>
@@ -1705,7 +1713,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
@@ -1723,7 +1731,7 @@
       <c r="H42" s="28"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="36" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1749,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1767,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="2:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B45" s="44" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1785,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1815,7 @@
       <c r="G47" s="57"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="14" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>33</v>
       </c>
@@ -1824,7 +1832,7 @@
       <c r="G48" s="51"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" s="14" customFormat="1" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B49" s="46" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1849,7 @@
       </c>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B50" s="44" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B51" s="44" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B52" s="44" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1909,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>33</v>
       </c>
@@ -1917,7 +1925,7 @@
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="60" x14ac:dyDescent="0.2">
       <c r="B55" s="46" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="36" x14ac:dyDescent="0.2">
       <c r="B56" s="44" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1989,7 @@
       <c r="F59" s="40"/>
       <c r="G59" s="57"/>
     </row>
-    <row r="60" spans="2:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="45" t="s">
         <v>33</v>
       </c>
@@ -1997,8 +2005,8 @@
       </c>
       <c r="G60" s="51"/>
     </row>
-    <row r="66" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="35" t="s">
         <v>3</v>
@@ -2014,7 +2022,7 @@
       </c>
       <c r="G67" s="52"/>
     </row>
-    <row r="68" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="7"/>
@@ -2029,7 +2037,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="67" t="s">
         <v>11</v>
       </c>
@@ -2059,18 +2067,18 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2089,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2090,7 +2098,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2114,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2127,7 +2135,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2192,7 +2200,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2723,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -2751,7 +2759,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2831,7 @@
       <c r="F50" s="40"/>
       <c r="G50" s="57"/>
     </row>
-    <row r="51" spans="2:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="44" t="s">
         <v>7</v>
       </c>
@@ -2835,7 +2843,7 @@
       <c r="F51" s="40"/>
       <c r="G51" s="57"/>
     </row>
-    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="44" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2855,7 @@
       <c r="F52" s="40"/>
       <c r="G52" s="57"/>
     </row>
-    <row r="53" spans="2:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="44" t="s">
         <v>51</v>
       </c>
@@ -2902,24 +2910,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I55"/>
+  <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="11.7109375" style="13" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -2930,7 +2938,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2939,7 +2947,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2963,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -2976,7 +2984,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3521,7 +3529,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3561,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -3611,8 +3619,12 @@
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="56"/>
+      <c r="F49" s="39">
+        <v>5</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>2</v>
+      </c>
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3625,7 +3637,9 @@
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="57"/>
+      <c r="G50" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="51" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="44" t="s">
@@ -3637,7 +3651,9 @@
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="57"/>
+      <c r="G51" s="57" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="44" t="s">
@@ -3649,19 +3665,25 @@
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="2:8" ht="12" x14ac:dyDescent="0.2">
+      <c r="G52" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="54">
         <v>42825</v>
       </c>
-      <c r="D53" s="40"/>
+      <c r="D53" s="40">
+        <v>6</v>
+      </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="57"/>
+      <c r="G53" s="57" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
@@ -3670,30 +3692,202 @@
       <c r="C54" s="41"/>
       <c r="D54" s="42">
         <f>SUM(D49:D53)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54" s="42"/>
       <c r="F54" s="42">
         <f>SUM(F49:F53)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="35" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="54">
+        <v>42828</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39">
+        <v>5</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="54">
+        <v>42829</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="54">
+        <v>42830</v>
+      </c>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="54">
+        <v>42831</v>
+      </c>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="54">
+        <v>42832</v>
+      </c>
+      <c r="D59" s="40">
+        <v>6</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42">
+        <f>SUM(D55:D59)</f>
+        <v>6</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42">
+        <f>SUM(F55:F59)</f>
+        <v>5</v>
+      </c>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="54">
+        <v>42835</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39">
+        <v>5</v>
+      </c>
+      <c r="G61" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="54">
+        <v>42836</v>
+      </c>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="54">
+        <v>42837</v>
+      </c>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="57"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="54">
+        <v>42838</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="57"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="54">
+        <v>42839</v>
+      </c>
+      <c r="D65" s="40">
+        <v>6</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42">
+        <f>SUM(D61:D65)</f>
+        <v>6</v>
+      </c>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42">
+        <f>SUM(F61:F65)</f>
+        <v>5</v>
+      </c>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9"/>
+      <c r="C67" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="36">
-        <f>SUM(D18+D24+D30+D36+D42+D48+D54)</f>
-        <v>48</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36">
-        <f>SUM(F18+F24+F30+F36+F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="52"/>
+      <c r="D67" s="36">
+        <f>SUM(D30+D36+D42+D48+D54+D60+D66)</f>
+        <v>52</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36">
+        <f>SUM(F30+F36+F42+F48+F54)</f>
+        <v>5</v>
+      </c>
+      <c r="G67" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3711,18 +3905,18 @@
       <selection activeCell="B42" sqref="B42:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="23"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="23"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="33" style="53" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="13.44140625" style="13"/>
+    <col min="8" max="8" width="10.5703125" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="13.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3927,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3742,7 +3936,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
@@ -3758,7 +3952,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="1"/>
       <c r="F6" s="32"/>
@@ -3779,7 +3973,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4277,7 +4471,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="44" t="s">
         <v>6</v>
       </c>
@@ -4305,7 +4499,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="44" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4512,7 @@
       <c r="G46" s="57"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:9" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="44" t="s">
         <v>51</v>
       </c>
@@ -4365,7 +4559,7 @@
       <c r="G49" s="52"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="7"/>
@@ -4380,7 +4574,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
         <v>11</v>
       </c>
